--- a/data-raw/loa.xlsx
+++ b/data-raw/loa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guillaume.noblet\Documents\GitHub\humind.data\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446FD2FB-B714-4B44-AA72-12DE10167888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B350D703-A008-4374-BE89-1F08AA1CCDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_frame" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="746">
   <si>
     <t>admin1</t>
   </si>
@@ -387,9 +387,6 @@
   </si>
   <si>
     <t>% of households with separated children, by severity of reason</t>
-  </si>
-  <si>
-    <t>add_child_sep_cat()</t>
   </si>
   <si>
     <t>Health</t>
@@ -2070,9 +2067,6 @@
     <t>function_to_compose</t>
   </si>
   <si>
-    <t xml:space="preserve">add_loop_edu_ind_age_corrected,add_loop_edu_ind_schooling_age_d_to_main , add_loop_edu_access_d, add_loop_edu_access_d_to_main, </t>
-  </si>
-  <si>
     <t>% of children 5 to 18 y.o. who did not attend school or any early childhood education program at any time during the 2023-2024 school year</t>
   </si>
   <si>
@@ -2115,9 +2109,6 @@
     <t>Number of individuals whose education was disrupted due to the school being occupied by displaced persons - Binary</t>
   </si>
   <si>
-    <t>add_loop_edu_ind_age_corrected,add_loop_edu_ind_schooling_age_d_to_main,add_loop_edu_disrupted_d</t>
-  </si>
-  <si>
     <t>health_ind_healthcare_needed_no_n,hh_size</t>
   </si>
   <si>
@@ -2266,6 +2257,51 @@
   </si>
   <si>
     <t>add_msni</t>
+  </si>
+  <si>
+    <t>add_loop_edu_access_d</t>
+  </si>
+  <si>
+    <t>add_loop_edu_ind_age_corrected,add_loop_edu_ind_schooling_age_d_to_main , add_loop_edu_access_d, add_loop_edu_access_d_to_main</t>
+  </si>
+  <si>
+    <t>add_loop_edu_access_d_to_main</t>
+  </si>
+  <si>
+    <t>add_loop_edu_barrier_protection_d</t>
+  </si>
+  <si>
+    <t>add_loop_edu_barrier_protection_d_to_main</t>
+  </si>
+  <si>
+    <t>add_loop_edu_disrupted_d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_loop_edu_ind_age_corrected,add_loop_edu_ind_schooling_age_d_to_main,add_loop_edu_disrupted_d,add_loop_edu_disrupted_d_to_main </t>
+  </si>
+  <si>
+    <t>add_loop_edu_disrupted_d_to_main</t>
+  </si>
+  <si>
+    <t>add_loop_edu_ind_age_corrected</t>
+  </si>
+  <si>
+    <t>add_loop_edu_ind_schooling_age_d_to_main</t>
+  </si>
+  <si>
+    <t>add_loop_healthcare_needed_cat</t>
+  </si>
+  <si>
+    <t>add_loop_healthcare_needed_cat_to_main</t>
+  </si>
+  <si>
+    <t>add_child_sep_cat</t>
+  </si>
+  <si>
+    <t>add_shelter_type_cat</t>
+  </si>
+  <si>
+    <t>% of households by category of the type of shelter</t>
   </si>
 </sst>
 </file>
@@ -2805,10 +2841,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:K86" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K86" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K46">
-    <sortCondition ref="A1:A46"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:K87" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K87" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K47">
+    <sortCondition ref="A1:A47"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="theme" dataDxfId="10"/>
@@ -3009,13 +3045,13 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="10" style="35" customWidth="1"/>
-    <col min="5" max="16384" width="8.625" style="35"/>
+    <col min="5" max="16384" width="8.59765625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -3029,7 +3065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
         <v>4</v>
       </c>
@@ -3043,7 +3079,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>4</v>
       </c>
@@ -3057,7 +3093,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>7</v>
       </c>
@@ -3079,30 +3115,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39:J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="107.5" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.375" customWidth="1"/>
+    <col min="9" max="9" width="6.3984375" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.75" customWidth="1"/>
-    <col min="16382" max="16384" width="10.875" customWidth="1"/>
+    <col min="11" max="11" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.69921875" customWidth="1"/>
+    <col min="16382" max="16384" width="10.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="7" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
@@ -3131,13 +3167,13 @@
         <v>17</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="27" t="s">
         <v>109</v>
       </c>
@@ -3148,7 +3184,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>25</v>
@@ -3168,7 +3204,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="28" t="s">
         <v>76</v>
       </c>
@@ -3199,7 +3235,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="28" t="s">
         <v>76</v>
       </c>
@@ -3230,7 +3266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="28" t="s">
         <v>76</v>
       </c>
@@ -3261,7 +3297,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="28" t="s">
         <v>76</v>
       </c>
@@ -3292,7 +3328,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="28" t="s">
         <v>76</v>
       </c>
@@ -3323,7 +3359,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="28" t="s">
         <v>76</v>
       </c>
@@ -3354,7 +3390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="28" t="s">
         <v>76</v>
       </c>
@@ -3385,7 +3421,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="28" t="s">
         <v>76</v>
       </c>
@@ -3416,7 +3452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="28" t="s">
         <v>76</v>
       </c>
@@ -3447,7 +3483,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="28" t="s">
         <v>76</v>
       </c>
@@ -3478,7 +3514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="28" t="s">
         <v>76</v>
       </c>
@@ -3509,7 +3545,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="28" t="s">
         <v>76</v>
       </c>
@@ -3540,7 +3576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="28" t="s">
         <v>76</v>
       </c>
@@ -3571,7 +3607,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="28" t="s">
         <v>76</v>
       </c>
@@ -3602,7 +3638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="28" t="s">
         <v>76</v>
       </c>
@@ -3633,7 +3669,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="29" t="s">
         <v>40</v>
       </c>
@@ -3664,7 +3700,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="29" t="s">
         <v>40</v>
       </c>
@@ -3695,7 +3731,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="29" t="s">
         <v>40</v>
       </c>
@@ -3726,7 +3762,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="29" t="s">
         <v>40</v>
       </c>
@@ -3757,7 +3793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="20" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="29" t="s">
         <v>40</v>
       </c>
@@ -3788,7 +3824,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="29" t="s">
         <v>40</v>
       </c>
@@ -3819,7 +3855,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="29" t="s">
         <v>40</v>
       </c>
@@ -3850,12 +3886,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="30" t="s">
         <v>72</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>73</v>
@@ -3870,7 +3906,7 @@
         <v>75</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H25" s="30" t="s">
         <v>43</v>
@@ -3879,24 +3915,24 @@
         <v>25</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>668</v>
+        <v>732</v>
       </c>
       <c r="K25" s="30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="30" t="s">
         <v>72</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>73</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>25</v>
@@ -3905,7 +3941,7 @@
         <v>75</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H26" s="30" t="s">
         <v>43</v>
@@ -3914,24 +3950,24 @@
         <v>25</v>
       </c>
       <c r="J26" s="30" t="s">
-        <v>668</v>
+        <v>732</v>
       </c>
       <c r="K26" s="30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="30" t="s">
         <v>72</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C27" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>25</v>
@@ -3940,7 +3976,7 @@
         <v>75</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H27" s="30" t="s">
         <v>43</v>
@@ -3949,24 +3985,24 @@
         <v>25</v>
       </c>
       <c r="J27" s="30" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="K27" s="30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="30" t="s">
         <v>72</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C28" s="30" t="s">
         <v>73</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>25</v>
@@ -3975,7 +4011,7 @@
         <v>75</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H28" s="30" t="s">
         <v>43</v>
@@ -3984,24 +4020,24 @@
         <v>25</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>683</v>
+        <v>737</v>
       </c>
       <c r="K28" s="30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="30" t="s">
         <v>72</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>73</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E29" s="30" t="s">
         <v>25</v>
@@ -4010,7 +4046,7 @@
         <v>75</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H29" s="30" t="s">
         <v>43</v>
@@ -4019,24 +4055,24 @@
         <v>25</v>
       </c>
       <c r="J29" s="30" t="s">
-        <v>683</v>
+        <v>737</v>
       </c>
       <c r="K29" s="30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="30" t="s">
         <v>72</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C30" s="30" t="s">
         <v>73</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E30" s="30" t="s">
         <v>25</v>
@@ -4045,7 +4081,7 @@
         <v>75</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H30" s="30" t="s">
         <v>43</v>
@@ -4054,24 +4090,24 @@
         <v>25</v>
       </c>
       <c r="J30" s="30" t="s">
-        <v>683</v>
+        <v>737</v>
       </c>
       <c r="K30" s="30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="30" t="s">
         <v>72</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>73</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E31" s="30" t="s">
         <v>25</v>
@@ -4080,7 +4116,7 @@
         <v>75</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H31" s="30" t="s">
         <v>43</v>
@@ -4089,13 +4125,13 @@
         <v>25</v>
       </c>
       <c r="J31" s="30" t="s">
-        <v>683</v>
+        <v>737</v>
       </c>
       <c r="K31" s="30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
         <v>54</v>
       </c>
@@ -4126,7 +4162,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="23" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="32" t="s">
         <v>112</v>
       </c>
@@ -4151,13 +4187,13 @@
         <v>25</v>
       </c>
       <c r="J33" s="32" t="s">
-        <v>115</v>
+        <v>743</v>
       </c>
       <c r="K33" s="32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" s="33" t="s">
         <v>19</v>
       </c>
@@ -4188,7 +4224,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="33" t="s">
         <v>19</v>
       </c>
@@ -4219,7 +4255,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="33" t="s">
         <v>19</v>
       </c>
@@ -4250,7 +4286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="25" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="33" t="s">
         <v>19</v>
       </c>
@@ -4281,49 +4317,49 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="26" t="s">
+    <row r="38" spans="1:11" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A38" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>652</v>
+      </c>
+      <c r="C38" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="J38" s="26" t="s">
-        <v>661</v>
-      </c>
-      <c r="K38" s="26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="D38" s="33" t="s">
+        <v>745</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" s="33" t="s">
+        <v>744</v>
+      </c>
+      <c r="K38" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A39" s="26" t="s">
         <v>48</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E39" s="26" t="s">
         <v>25</v>
@@ -4337,24 +4373,24 @@
         <v>25</v>
       </c>
       <c r="J39" s="26" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="K39" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A40" s="26" t="s">
         <v>48</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>619</v>
+        <v>51</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>656</v>
+        <v>52</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>25</v>
@@ -4368,24 +4404,24 @@
         <v>25</v>
       </c>
       <c r="J40" s="26" t="s">
-        <v>53</v>
+        <v>661</v>
       </c>
       <c r="K40" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A41" s="26" t="s">
         <v>48</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E41" s="26" t="s">
         <v>25</v>
@@ -4399,24 +4435,24 @@
         <v>25</v>
       </c>
       <c r="J41" s="26" t="s">
-        <v>663</v>
+        <v>53</v>
       </c>
       <c r="K41" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" s="26" t="s">
         <v>48</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>58</v>
+        <v>619</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>59</v>
+        <v>656</v>
       </c>
       <c r="E42" s="26" t="s">
         <v>25</v>
@@ -4430,24 +4466,24 @@
         <v>25</v>
       </c>
       <c r="J42" s="26" t="s">
-        <v>60</v>
+        <v>662</v>
       </c>
       <c r="K42" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="26" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E43" s="26" t="s">
         <v>25</v>
@@ -4461,24 +4497,24 @@
         <v>25</v>
       </c>
       <c r="J43" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K43" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="26" t="s">
         <v>48</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E44" s="26" t="s">
         <v>25</v>
@@ -4492,24 +4528,24 @@
         <v>25</v>
       </c>
       <c r="J44" s="26" t="s">
-        <v>658</v>
+        <v>63</v>
       </c>
       <c r="K44" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A45" s="26" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>621</v>
+        <v>64</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>659</v>
+        <v>65</v>
       </c>
       <c r="E45" s="26" t="s">
         <v>25</v>
@@ -4523,24 +4559,24 @@
         <v>25</v>
       </c>
       <c r="J45" s="26" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="K45" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="26" t="s">
         <v>48</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E46" s="26" t="s">
         <v>25</v>
@@ -4554,53 +4590,55 @@
         <v>25</v>
       </c>
       <c r="J46" s="26" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="K46" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>684</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D47" s="34" t="s">
-        <v>689</v>
-      </c>
-      <c r="E47" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="H47" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I47" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="J47" s="34" t="s">
-        <v>690</v>
-      </c>
-      <c r="K47" s="34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A47" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>659</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J47" s="26" t="s">
+        <v>664</v>
+      </c>
+      <c r="K47" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A48" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C48" s="34" t="s">
         <v>73</v>
       </c>
       <c r="D48" s="34" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="E48" s="34" t="s">
         <v>25</v>
@@ -4612,24 +4650,24 @@
         <v>25</v>
       </c>
       <c r="J48" s="34" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="K48" s="34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A49" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C49" s="34" t="s">
         <v>73</v>
       </c>
       <c r="D49" s="34" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E49" s="34" t="s">
         <v>25</v>
@@ -4641,24 +4679,24 @@
         <v>25</v>
       </c>
       <c r="J49" s="34" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="K49" s="34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A50" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C50" s="34" t="s">
         <v>73</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E50" s="34" t="s">
         <v>25</v>
@@ -4670,24 +4708,24 @@
         <v>25</v>
       </c>
       <c r="J50" s="34" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="K50" s="34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A51" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C51" s="34" t="s">
         <v>73</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="E51" s="34" t="s">
         <v>25</v>
@@ -4699,24 +4737,24 @@
         <v>25</v>
       </c>
       <c r="J51" s="34" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="K51" s="34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="34" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A52" s="34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C52" s="34" t="s">
         <v>73</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E52" s="34" t="s">
         <v>25</v>
@@ -4728,53 +4766,53 @@
         <v>25</v>
       </c>
       <c r="J52" s="34" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="K52" s="34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>698</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I53" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J53" s="15" t="s">
-        <v>727</v>
-      </c>
-      <c r="K53" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A53" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>685</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="34" t="s">
+        <v>692</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="J53" s="34" t="s">
+        <v>687</v>
+      </c>
+      <c r="K53" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A54" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>25</v>
@@ -4786,24 +4824,24 @@
         <v>25</v>
       </c>
       <c r="J54" s="15" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="K54" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A55" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>25</v>
@@ -4815,24 +4853,24 @@
         <v>25</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="K55" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A56" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>25</v>
@@ -4844,24 +4882,24 @@
         <v>25</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="K56" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A57" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>25</v>
@@ -4873,24 +4911,24 @@
         <v>25</v>
       </c>
       <c r="J57" s="15" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="K57" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A58" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>626</v>
+        <v>260</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>25</v>
@@ -4902,24 +4940,24 @@
         <v>25</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="K58" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A59" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="E59" s="15" t="s">
         <v>25</v>
@@ -4931,24 +4969,24 @@
         <v>25</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="K59" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A60" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>268</v>
+        <v>626</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>25</v>
@@ -4960,24 +4998,24 @@
         <v>25</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="K60" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A61" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>628</v>
+        <v>267</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E61" s="15" t="s">
         <v>25</v>
@@ -4989,24 +5027,24 @@
         <v>25</v>
       </c>
       <c r="J61" s="15" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="K61" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A62" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>273</v>
+        <v>627</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E62" s="15" t="s">
         <v>25</v>
@@ -5018,24 +5056,24 @@
         <v>25</v>
       </c>
       <c r="J62" s="15" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="K62" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A63" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C63" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="E63" s="15" t="s">
         <v>25</v>
@@ -5047,24 +5085,24 @@
         <v>25</v>
       </c>
       <c r="J63" s="15" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="K63" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A64" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>25</v>
@@ -5076,24 +5114,24 @@
         <v>25</v>
       </c>
       <c r="J64" s="15" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="K64" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A65" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C65" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="E65" s="15" t="s">
         <v>25</v>
@@ -5105,24 +5143,24 @@
         <v>25</v>
       </c>
       <c r="J65" s="15" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="K65" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A66" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C66" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E66" s="15" t="s">
         <v>25</v>
@@ -5134,24 +5172,24 @@
         <v>25</v>
       </c>
       <c r="J66" s="15" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="K66" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A67" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C67" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>25</v>
@@ -5163,24 +5201,24 @@
         <v>25</v>
       </c>
       <c r="J67" s="15" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="K67" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A68" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C68" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="E68" s="15" t="s">
         <v>25</v>
@@ -5192,24 +5230,24 @@
         <v>25</v>
       </c>
       <c r="J68" s="15" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="K68" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A69" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C69" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E69" s="15" t="s">
         <v>25</v>
@@ -5221,24 +5259,24 @@
         <v>25</v>
       </c>
       <c r="J69" s="15" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="K69" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A70" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C70" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="E70" s="15" t="s">
         <v>25</v>
@@ -5250,24 +5288,24 @@
         <v>25</v>
       </c>
       <c r="J70" s="15" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K70" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A71" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C71" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E71" s="15" t="s">
         <v>25</v>
@@ -5279,24 +5317,24 @@
         <v>25</v>
       </c>
       <c r="J71" s="15" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="K71" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A72" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="E72" s="15" t="s">
         <v>25</v>
@@ -5308,24 +5346,24 @@
         <v>25</v>
       </c>
       <c r="J72" s="15" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="K72" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A73" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E73" s="15" t="s">
         <v>25</v>
@@ -5337,24 +5375,24 @@
         <v>25</v>
       </c>
       <c r="J73" s="15" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="K73" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A74" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E74" s="15" t="s">
         <v>25</v>
@@ -5366,24 +5404,24 @@
         <v>25</v>
       </c>
       <c r="J74" s="15" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="K74" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A75" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E75" s="15" t="s">
         <v>25</v>
@@ -5395,24 +5433,24 @@
         <v>25</v>
       </c>
       <c r="J75" s="15" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="K75" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A76" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="E76" s="15" t="s">
         <v>25</v>
@@ -5424,24 +5462,24 @@
         <v>25</v>
       </c>
       <c r="J76" s="15" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="K76" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A77" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E77" s="15" t="s">
         <v>25</v>
@@ -5453,24 +5491,24 @@
         <v>25</v>
       </c>
       <c r="J77" s="15" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="K77" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A78" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="E78" s="15" t="s">
         <v>25</v>
@@ -5482,24 +5520,24 @@
         <v>25</v>
       </c>
       <c r="J78" s="15" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="K78" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A79" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E79" s="15" t="s">
         <v>25</v>
@@ -5511,24 +5549,24 @@
         <v>25</v>
       </c>
       <c r="J79" s="15" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="K79" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A80" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E80" s="15" t="s">
         <v>25</v>
@@ -5540,24 +5578,24 @@
         <v>25</v>
       </c>
       <c r="J80" s="15" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="K80" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A81" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="E81" s="15" t="s">
         <v>25</v>
@@ -5569,24 +5607,24 @@
         <v>25</v>
       </c>
       <c r="J81" s="15" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="K81" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A82" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="E82" s="15" t="s">
         <v>25</v>
@@ -5598,24 +5636,24 @@
         <v>25</v>
       </c>
       <c r="J82" s="15" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="K82" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A83" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E83" s="15" t="s">
         <v>25</v>
@@ -5627,96 +5665,125 @@
         <v>25</v>
       </c>
       <c r="J83" s="15" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="K83" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A84" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D84" s="15" t="s">
+        <v>719</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H84" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I84" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J84" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="K84" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A85" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>720</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H85" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I85" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J85" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="K85" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A86" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>721</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>722</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H86" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I86" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J86" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="K86" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A87" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="15" t="s">
         <v>723</v>
       </c>
-      <c r="E84" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H84" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I84" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J84" s="15" t="s">
-        <v>733</v>
-      </c>
-      <c r="K84" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A85" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>724</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>725</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H85" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I85" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J85" s="15" t="s">
-        <v>733</v>
-      </c>
-      <c r="K85" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>726</v>
-      </c>
-      <c r="E86" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H86" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I86" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J86" s="15" t="s">
-        <v>733</v>
-      </c>
-      <c r="K86" s="15" t="s">
+      <c r="E87" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H87" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I87" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J87" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="K87" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5731,2154 +5798,2773 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59:D92"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G98" sqref="G98:G106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="19" customWidth="1"/>
-    <col min="2" max="3" width="43.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="85" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="95.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="13.796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5" style="19" customWidth="1"/>
+    <col min="3" max="3" width="41.69921875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="39.59765625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="43.19921875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="9" style="19"/>
+    <col min="7" max="7" width="19.3984375" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G1" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>109</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>110</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>124</v>
-      </c>
       <c r="F2" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G2" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>126</v>
-      </c>
       <c r="F3" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G3" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>80</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>128</v>
-      </c>
       <c r="F4" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G4" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>82</v>
       </c>
       <c r="D5" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>130</v>
-      </c>
       <c r="F5" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G5" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>84</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>132</v>
-      </c>
       <c r="F6" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G6" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>86</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>134</v>
-      </c>
       <c r="F7" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G7" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="F8" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G8" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>90</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>138</v>
-      </c>
       <c r="F9" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>92</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>140</v>
-      </c>
       <c r="F10" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G10" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>94</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>142</v>
-      </c>
       <c r="F11" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G11" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>96</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>144</v>
-      </c>
       <c r="F12" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G12" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>98</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>146</v>
-      </c>
       <c r="F13" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G13" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A14" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>100</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>148</v>
-      </c>
       <c r="F14" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G14" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A15" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>102</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>151</v>
-      </c>
       <c r="F15" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G15" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>105</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>153</v>
-      </c>
       <c r="F16" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G16" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A17" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>107</v>
       </c>
       <c r="D17" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="E17" s="10" t="s">
-        <v>155</v>
-      </c>
       <c r="F17" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="F18" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G18" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>160</v>
-      </c>
       <c r="F19" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G19" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>163</v>
-      </c>
       <c r="F20" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G20" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>166</v>
-      </c>
       <c r="F21" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G21" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D22" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>167</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>168</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G22" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>170</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G23" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>171</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>172</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G24" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D25" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>589</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>590</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G25" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D26" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>591</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>592</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G26" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A27" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G27" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G28" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A29" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D29" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>602</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>603</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G29" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C30" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>600</v>
-      </c>
       <c r="E30" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G30" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A31" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G31" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A32" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G32" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A33" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G33" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A34" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G34" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A35" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G35" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A36" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G36" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A37" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G37" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A38" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G38" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A39" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G39" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A40" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G40" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A41" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G41" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A42" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B42" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="D42" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="E42" s="13" t="s">
         <v>220</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>221</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G42" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A43" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C43" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="E43" s="13" t="s">
         <v>223</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>224</v>
       </c>
       <c r="F43" s="13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G43" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A44" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B44" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="D44" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="E44" s="13" t="s">
         <v>227</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>228</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G44" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A45" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C45" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="E45" s="13" t="s">
         <v>230</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>231</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G45" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A46" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C46" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="E46" s="13" t="s">
         <v>233</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>234</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G46" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A47" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C47" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D47" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="E47" s="13" t="s">
         <v>236</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>237</v>
       </c>
       <c r="F47" s="13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G47" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A48" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F48" s="13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G48" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A49" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F49" s="13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G49" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A50" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F50" s="13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G50" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A51" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B51" s="13" t="s">
-        <v>117</v>
-      </c>
       <c r="C51" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D51" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="E51" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="F51" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A52" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="F51" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="13" t="s">
+      <c r="D52" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A53" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="D52" s="13" t="s">
+      <c r="C53" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A54" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A55" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="E55" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="E52" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A53" s="13" t="s">
+      <c r="F55" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A56" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B53" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="D53" s="13" t="s">
+      <c r="C56" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="E56" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="E53" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>578</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>582</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>579</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>581</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="13" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>579</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>580</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>246</v>
-      </c>
       <c r="F56" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G56" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A57" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C57" s="14" t="s">
         <v>55</v>
       </c>
       <c r="D57" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E57" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="E57" s="14" t="s">
-        <v>175</v>
-      </c>
       <c r="F57" s="14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G57" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A58" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>724</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A59" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B59" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B59" s="15" t="s">
-        <v>248</v>
-      </c>
       <c r="C59" s="15" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F59" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G59" s="15" t="s">
+        <v>725</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A60" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B60" s="15" t="s">
-        <v>248</v>
-      </c>
       <c r="C60" s="15" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F60" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G60" s="15" t="s">
+        <v>725</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A61" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B61" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B61" s="15" t="s">
-        <v>248</v>
-      </c>
       <c r="C61" s="15" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F61" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G61" s="15" t="s">
+        <v>725</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A62" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B62" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B62" s="15" t="s">
-        <v>248</v>
-      </c>
       <c r="C62" s="15" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F62" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G62" s="15" t="s">
+        <v>726</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A63" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B63" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B63" s="15" t="s">
-        <v>248</v>
-      </c>
       <c r="C63" s="15" t="s">
-        <v>261</v>
+        <v>625</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F63" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G63" s="15" t="s">
+        <v>726</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A64" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B64" s="15" t="s">
         <v>247</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>248</v>
       </c>
       <c r="C64" s="15" t="s">
         <v>626</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F64" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G64" s="15" t="s">
+        <v>726</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A65" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B65" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B65" s="15" t="s">
-        <v>248</v>
-      </c>
       <c r="C65" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>727</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A66" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C66" s="15" t="s">
         <v>627</v>
       </c>
-      <c r="D65" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="15" t="s">
+      <c r="D66" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A67" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B67" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B66" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="F66" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A67" s="15" t="s">
+      <c r="C67" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A68" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B68" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B67" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>628</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="B68" s="15" t="s">
-        <v>248</v>
-      </c>
       <c r="C68" s="15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>651</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F68" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G68" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A69" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B69" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B69" s="15" t="s">
-        <v>248</v>
-      </c>
       <c r="C69" s="15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>652</v>
+        <v>277</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F69" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G69" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A70" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B70" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B70" s="15" t="s">
-        <v>248</v>
-      </c>
       <c r="C70" s="15" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F70" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G70" s="15" t="s">
+        <v>728</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A71" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B71" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B71" s="15" t="s">
-        <v>248</v>
-      </c>
       <c r="C71" s="15" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F71" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G71" s="15" t="s">
+        <v>728</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A72" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B72" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B72" s="15" t="s">
-        <v>248</v>
-      </c>
       <c r="C72" s="15" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F72" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G72" s="15" t="s">
+        <v>728</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A73" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B73" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B73" s="15" t="s">
-        <v>248</v>
-      </c>
       <c r="C73" s="15" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F73" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G73" s="15" t="s">
+        <v>728</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A74" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B74" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B74" s="15" t="s">
-        <v>248</v>
-      </c>
       <c r="C74" s="15" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F74" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G74" s="15" t="s">
+        <v>728</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A75" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E75" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>724</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A76" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B76" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="F75" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A76" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>295</v>
-      </c>
       <c r="C76" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>725</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A77" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>726</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A78" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>727</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A79" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A80" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>728</v>
+      </c>
+      <c r="H80" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A81" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="D81" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="D76" s="15" t="s">
+      <c r="E81" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="E76" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="F76" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="F77" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A78" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A79" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A80" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="F80" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A81" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>313</v>
-      </c>
       <c r="F81" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G81" s="15" t="s">
+        <v>724</v>
+      </c>
+      <c r="H81" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A82" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>314</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F82" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G82" s="15" t="s">
+        <v>725</v>
+      </c>
+      <c r="H82" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A83" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C83" s="15" t="s">
         <v>315</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F83" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G83" s="15" t="s">
+        <v>726</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A84" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>316</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F84" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G84" s="15" t="s">
+        <v>727</v>
+      </c>
+      <c r="H84" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A85" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>317</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F85" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G85" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="H85" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A86" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>318</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F86" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G86" s="15" t="s">
+        <v>728</v>
+      </c>
+      <c r="H86" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A87" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B87" s="15" t="s">
         <v>247</v>
-      </c>
-      <c r="B87" s="15" t="s">
-        <v>295</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>319</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="F87" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G87" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="H87" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A88" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F88" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G88" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="H88" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A89" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F89" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G89" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="H89" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A90" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>295</v>
+        <v>116</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="F90" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="H90" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A91" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>117</v>
+        <v>331</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>329</v>
+        <v>628</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A92" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="B92" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="D92" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="E92" s="15" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" s="16" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A93" s="16" t="s">
+      <c r="G91" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="H91" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A92" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B92" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D92" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="C93" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D93" s="16" t="s">
+      <c r="E92" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="E93" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="F93" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="F92" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G92" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="H92" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A93" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F93" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G93" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H93" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A94" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F94" s="18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G94" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H94" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A95" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F95" s="18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G95" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H95" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A96" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F96" s="18" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G96" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H96" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A97" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>185</v>
+        <v>653</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>69</v>
+        <v>652</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>186</v>
+        <v>693</v>
       </c>
       <c r="E97" s="18" t="s">
+        <v>694</v>
+      </c>
+      <c r="F97" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G97" s="18" t="s">
+        <v>744</v>
+      </c>
+      <c r="H97" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+      <c r="A98" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B98" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="F97" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A98" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B98" s="18" t="s">
-        <v>654</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>653</v>
-      </c>
-      <c r="D98" s="18" t="s">
-        <v>696</v>
-      </c>
-      <c r="E98" s="18" t="s">
-        <v>697</v>
-      </c>
-      <c r="F98" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="C98" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G98" s="26" t="s">
+        <v>660</v>
+      </c>
+      <c r="H98" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A99" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F99" s="17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G99" s="26" t="s">
+        <v>661</v>
+      </c>
+      <c r="H99" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A100" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>51</v>
+        <v>618</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F100" s="17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G100" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H100" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A101" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C101" s="17" t="s">
         <v>619</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F101" s="17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G101" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="H101" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A102" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>620</v>
+        <v>58</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F102" s="17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G102" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H102" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A103" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F103" s="17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G103" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H103" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A104" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E104" s="17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F104" s="17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G104" s="26" t="s">
+        <v>657</v>
+      </c>
+      <c r="H104" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A105" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>64</v>
+        <v>620</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E105" s="17" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F105" s="17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="G105" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="H105" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A106" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C106" s="17" t="s">
         <v>621</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E106" s="17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F106" s="17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A107" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B107" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>622</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="E107" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="F107" s="17" t="s">
-        <v>24</v>
+      <c r="G106" s="26" t="s">
+        <v>664</v>
+      </c>
+      <c r="H106" s="17" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -7901,1417 +8587,1417 @@
       <selection pane="bottomLeft" activeCell="A31" sqref="A31:A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="36.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="36.09765625" style="3" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="30.375" style="3" customWidth="1"/>
-    <col min="5" max="8" width="12.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.8984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.3984375" style="3" customWidth="1"/>
+    <col min="5" max="8" width="12.69921875" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="H1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="D5" s="3" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
         <v>351</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>352</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="D8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="D9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="D10" s="3" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="D11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D12" s="3" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D14" s="3" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="D15" s="3" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="D16" s="3" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="D17" s="3" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
         <v>382</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>383</v>
       </c>
       <c r="B20" s="3">
         <v>-999</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B23" s="3">
         <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B24" s="3">
         <v>3</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B27" s="3">
         <v>6</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B28" s="3">
         <v>7</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B29" s="3">
         <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="D29" s="3" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="D31" s="3" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="D32" s="3" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="D33" s="3" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="3" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="B36" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="B47" s="3" t="s">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+      <c r="C56" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A74" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A76" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="D51" s="3" t="s">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A84" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="B52" s="3" t="s">
+      <c r="C84" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="B53" s="3" t="s">
+      <c r="D84" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D84" s="3" t="s">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A87" s="3" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="C87" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="D87" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A88" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B88" s="3" t="s">
+      <c r="C88" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="D88" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A89" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B89" s="3" t="s">
+      <c r="C89" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="D89" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A90" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B90" s="3" t="s">
+      <c r="C90" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="D90" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A91" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B91" s="3" t="s">
+      <c r="C91" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="D91" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A92" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B92" s="3" t="s">
+      <c r="C92" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="D92" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A93" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B93" s="3" t="s">
+      <c r="C93" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="D93" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A94" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B94" s="3" t="s">
+      <c r="C94" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="D94" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A95" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B95" s="3" t="s">
+      <c r="C95" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="D95" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A96" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="D95" s="3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B96" s="3" t="s">
+      <c r="C96" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="D96" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A97" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="D96" s="3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B97" s="3" t="s">
+      <c r="C97" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="D97" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A98" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B98" s="3" t="s">
+      <c r="C98" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="D98" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A99" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="D98" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B99" s="3" t="s">
+      <c r="C99" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="D99" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A100" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B100" s="3" t="s">
+      <c r="C100" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="D100" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A101" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B101" s="3" t="s">
+      <c r="C101" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="D101" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A102" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B102" s="3" t="s">
+      <c r="C102" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="D102" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A103" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B103" s="3" t="s">
+      <c r="C103" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="D103" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A104" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B104" s="3" t="s">
+      <c r="C104" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="D104" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A105" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="D104" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B105" s="3" t="s">
+      <c r="C105" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="D105" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A106" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="D105" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B106" s="3" t="s">
+      <c r="C106" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="D106" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A107" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="D106" s="3" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B107" s="3" t="s">
+      <c r="C107" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="D107" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A108" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="D107" s="3" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B108" s="3" t="s">
+      <c r="C108" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="D108" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A109" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="D108" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B109" s="3" t="s">
+      <c r="C109" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="D109" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A110" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="D109" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="B110" s="3" t="s">
+      <c r="C110" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="D110" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A112" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="B112" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A113" s="3" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="D112" s="3" t="s">
+      <c r="B113" s="3" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="B113" s="3" t="s">
+      <c r="C113" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="D113" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="D113" s="3" t="s">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A115" s="3" t="s">
         <v>550</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
-        <v>551</v>
       </c>
       <c r="B115" s="3">
         <v>1</v>
       </c>
       <c r="C115" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="D115" s="3" t="s">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A116" s="3" t="s">
         <v>550</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="3" t="s">
-        <v>551</v>
       </c>
       <c r="B116" s="3">
         <v>0</v>
       </c>
       <c r="C116" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="D116" s="3" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B118" s="3">
         <v>0</v>
@@ -9323,9 +10009,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B119" s="3">
         <v>1</v>
@@ -9337,121 +10023,121 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="C121" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="D121" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="D121" s="3" t="s">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A122" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="B122" s="3" t="s">
+      <c r="C122" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="D122" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="D122" s="3" t="s">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A123" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B123" s="3" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="B123" s="3" t="s">
+      <c r="C123" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="D123" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="D123" s="3" t="s">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A125" s="3" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="3" t="s">
+      <c r="B125" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C125" s="3" t="s">
+      <c r="D125" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="D125" s="3" t="s">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A126" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="B126" s="3" t="s">
+      <c r="C126" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="D126" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="D126" s="3" t="s">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A127" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="B127" s="3" t="s">
+      <c r="C127" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="D127" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="D127" s="3" t="s">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A128" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="B128" s="3" t="s">
+      <c r="C128" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="D128" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="D128" s="3" t="s">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A129" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A131" s="3" t="s">
         <v>574</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="3" t="s">
-        <v>575</v>
       </c>
       <c r="B131" s="3">
         <v>1</v>
@@ -9463,9 +10149,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B132" s="3">
         <v>2</v>
@@ -9477,9 +10163,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B133" s="3">
         <v>3</v>
@@ -9491,9 +10177,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B134" s="3">
         <v>4</v>
@@ -9505,23 +10191,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B135" s="3">
         <v>5</v>
       </c>
       <c r="C135" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A137" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="3" t="s">
-        <v>577</v>
       </c>
       <c r="B137" s="3">
         <v>0</v>
@@ -9533,9 +10219,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B138" s="3">
         <v>1</v>

--- a/data-raw/loa.xlsx
+++ b/data-raw/loa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guillaume.noblet\Documents\GitHub\humind.data\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B350D703-A008-4374-BE89-1F08AA1CCDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C3F067-92D9-46BD-ABCC-1E406E952484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5801,8 +5801,8 @@
   <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G98" sqref="G98:G106"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -5813,7 +5813,7 @@
     <col min="4" max="4" width="39.59765625" style="19" customWidth="1"/>
     <col min="5" max="5" width="43.19921875" style="19" customWidth="1"/>
     <col min="6" max="6" width="9" style="19"/>
-    <col min="7" max="7" width="19.3984375" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.69921875" style="19" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -6305,7 +6305,7 @@
         <v>24</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H19" s="29" t="s">
         <v>27</v>
@@ -6357,7 +6357,7 @@
         <v>24</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H21" s="29" t="s">
         <v>27</v>

--- a/data-raw/loa.xlsx
+++ b/data-raw/loa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guillaume.noblet\Documents\GitHub\humind.data\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C3F067-92D9-46BD-ABCC-1E406E952484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2460203-E1E7-4670-9489-8D0CBE82D0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_frame" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="update_choices" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">update_choices!$A$1:$H$138</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">update_survey!$A$1:$F$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="746">
   <si>
     <t>admin1</t>
   </si>
@@ -5800,9 +5801,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -8147,6 +8148,9 @@
       <c r="E90" s="15" t="s">
         <v>330</v>
       </c>
+      <c r="F90" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="G90" s="15" t="s">
         <v>730</v>
       </c>
@@ -8169,6 +8173,9 @@
       </c>
       <c r="E91" s="15" t="s">
         <v>333</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="G91" s="15" t="s">
         <v>730</v>
@@ -8582,9 +8589,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31:A34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -10234,6 +10241,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H138" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/data-raw/loa.xlsx
+++ b/data-raw/loa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guillaume.noblet\Documents\GitHub\humind.data\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2460203-E1E7-4670-9489-8D0CBE82D0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9621FB78-73D7-48A8-A67C-67B465CD182D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-96" windowWidth="23256" windowHeight="13896" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_frame" sheetId="2" r:id="rId1"/>
@@ -3118,8 +3118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39:J47"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -3910,7 +3910,7 @@
         <v>665</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="I25" s="30" t="s">
         <v>25</v>
@@ -3945,7 +3945,7 @@
         <v>665</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="I26" s="30" t="s">
         <v>25</v>
@@ -3980,7 +3980,7 @@
         <v>665</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="I27" s="30" t="s">
         <v>25</v>
@@ -4015,7 +4015,7 @@
         <v>665</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="I28" s="30" t="s">
         <v>25</v>
@@ -4050,7 +4050,7 @@
         <v>665</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="I29" s="30" t="s">
         <v>25</v>
@@ -4085,7 +4085,7 @@
         <v>665</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="I30" s="30" t="s">
         <v>25</v>
@@ -4120,7 +4120,7 @@
         <v>665</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="I31" s="30" t="s">
         <v>25</v>
@@ -8589,7 +8589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D131" sqref="D131"/>
     </sheetView>

--- a/data-raw/loa.xlsx
+++ b/data-raw/loa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guillaume.noblet\Documents\GitHub\humind.data\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAD8F5D-C9C6-41B7-93BE-178AEC3AF4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFC107D-0699-4B0C-AEDA-4CBBCF4C28A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_frame" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="update_choices" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">update_choices!$A$1:$H$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">update_choices!$A$1:$H$120</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">update_survey!$A$1:$F$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2001" uniqueCount="698">
   <si>
     <t>admin1</t>
   </si>
@@ -603,9 +603,6 @@
     <t>Catégorie du nombre de problèmes de logement</t>
   </si>
   <si>
-    <t>select_one l_wash_drinking_water_source</t>
-  </si>
-  <si>
     <t>Category of the drinking water source</t>
   </si>
   <si>
@@ -1287,9 +1284,6 @@
     <t>2 à 3 tâches</t>
   </si>
   <si>
-    <t>4_to_5 tasks</t>
-  </si>
-  <si>
     <t>4 to 5 tasks</t>
   </si>
   <si>
@@ -1509,9 +1503,6 @@
     <t>Plus d'une heure</t>
   </si>
   <si>
-    <t>l_wash_drinking_water_source</t>
-  </si>
-  <si>
     <t>surface_water</t>
   </si>
   <si>
@@ -1522,153 +1513,6 @@
   </si>
   <si>
     <t>Amélioré</t>
-  </si>
-  <si>
-    <t>l_age_cat</t>
-  </si>
-  <si>
-    <t>(0, 5]</t>
-  </si>
-  <si>
-    <t>0-5</t>
-  </si>
-  <si>
-    <t>(5, 10]</t>
-  </si>
-  <si>
-    <t>6-10</t>
-  </si>
-  <si>
-    <t>(10,15]</t>
-  </si>
-  <si>
-    <t>10-15</t>
-  </si>
-  <si>
-    <t>(15,20]</t>
-  </si>
-  <si>
-    <t>16-20</t>
-  </si>
-  <si>
-    <t>(20,25]</t>
-  </si>
-  <si>
-    <t>21-25</t>
-  </si>
-  <si>
-    <t>(25,30]</t>
-  </si>
-  <si>
-    <t>26-30</t>
-  </si>
-  <si>
-    <t>(30,35]</t>
-  </si>
-  <si>
-    <t>31-35</t>
-  </si>
-  <si>
-    <t>(35,40]</t>
-  </si>
-  <si>
-    <t>36-40</t>
-  </si>
-  <si>
-    <t>(40,45]</t>
-  </si>
-  <si>
-    <t>41-45</t>
-  </si>
-  <si>
-    <t>(45,50]</t>
-  </si>
-  <si>
-    <t>46-50</t>
-  </si>
-  <si>
-    <t>(50,55]</t>
-  </si>
-  <si>
-    <t>51-55</t>
-  </si>
-  <si>
-    <t>(55,60]</t>
-  </si>
-  <si>
-    <t>56-60</t>
-  </si>
-  <si>
-    <t>(60,65]</t>
-  </si>
-  <si>
-    <t>61-65</t>
-  </si>
-  <si>
-    <t>(65,70]</t>
-  </si>
-  <si>
-    <t>66-70</t>
-  </si>
-  <si>
-    <t>(70,75]</t>
-  </si>
-  <si>
-    <t>71-75</t>
-  </si>
-  <si>
-    <t>(75,80]</t>
-  </si>
-  <si>
-    <t>76-80</t>
-  </si>
-  <si>
-    <t>(80,85]</t>
-  </si>
-  <si>
-    <t>81-85</t>
-  </si>
-  <si>
-    <t>(85,90]</t>
-  </si>
-  <si>
-    <t>86-90</t>
-  </si>
-  <si>
-    <t>(90,95]</t>
-  </si>
-  <si>
-    <t>91-95</t>
-  </si>
-  <si>
-    <t>(95,100]</t>
-  </si>
-  <si>
-    <t>96-100</t>
-  </si>
-  <si>
-    <t>(100,105]</t>
-  </si>
-  <si>
-    <t>101-105</t>
-  </si>
-  <si>
-    <t>(105,110]</t>
-  </si>
-  <si>
-    <t>106-110</t>
-  </si>
-  <si>
-    <t>(110,115]</t>
-  </si>
-  <si>
-    <t>111-115</t>
-  </si>
-  <si>
-    <t>(115,120]</t>
-  </si>
-  <si>
-    <t>116-120</t>
   </si>
   <si>
     <t>l_age_18_cat</t>
@@ -2303,6 +2147,18 @@
   </si>
   <si>
     <t>level</t>
+  </si>
+  <si>
+    <t>4_to_5_tasks</t>
+  </si>
+  <si>
+    <t>select_one l_wash_drinking_water_source_cat</t>
+  </si>
+  <si>
+    <t>l_wash_drinking_water_source_cat</t>
+  </si>
+  <si>
+    <t>l_snfi_fds_cannot_n</t>
   </si>
 </sst>
 </file>
@@ -2660,7 +2516,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2675,11 +2535,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2848,23 +2704,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:K87" totalsRowShown="0" headerRowDxfId="12" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:K87" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:K87" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K47">
     <sortCondition ref="A1:A47"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="theme" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="var" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="analysis" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="indicator" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="na_rm" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="subset" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="recall" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="level" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="weighted" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="function_to_compose" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="R_package" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="theme" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="var" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="analysis" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="indicator" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="na_rm" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="subset" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="recall" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="level" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="weighted" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="function_to_compose" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="R_package" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3124,8 +2980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -3168,13 +3024,13 @@
         <v>15</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>745</v>
+        <v>693</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>665</v>
+        <v>613</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>17</v>
@@ -3191,7 +3047,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>648</v>
+        <v>596</v>
       </c>
       <c r="E2" s="27" t="s">
         <v>24</v>
@@ -3898,7 +3754,7 @@
         <v>71</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>669</v>
+        <v>617</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>72</v>
@@ -3913,7 +3769,7 @@
         <v>74</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>664</v>
+        <v>612</v>
       </c>
       <c r="H25" s="30" t="s">
         <v>23</v>
@@ -3922,7 +3778,7 @@
         <v>24</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>731</v>
+        <v>679</v>
       </c>
       <c r="K25" s="30" t="s">
         <v>26</v>
@@ -3933,13 +3789,13 @@
         <v>71</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>670</v>
+        <v>618</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>72</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>666</v>
+        <v>614</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>24</v>
@@ -3948,7 +3804,7 @@
         <v>74</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>664</v>
+        <v>612</v>
       </c>
       <c r="H26" s="30" t="s">
         <v>23</v>
@@ -3957,7 +3813,7 @@
         <v>24</v>
       </c>
       <c r="J26" s="30" t="s">
-        <v>731</v>
+        <v>679</v>
       </c>
       <c r="K26" s="30" t="s">
         <v>26</v>
@@ -3968,13 +3824,13 @@
         <v>71</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>597</v>
+        <v>545</v>
       </c>
       <c r="C27" s="30" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>667</v>
+        <v>615</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>24</v>
@@ -3983,7 +3839,7 @@
         <v>74</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>664</v>
+        <v>612</v>
       </c>
       <c r="H27" s="30" t="s">
         <v>23</v>
@@ -3992,7 +3848,7 @@
         <v>24</v>
       </c>
       <c r="J27" s="30" t="s">
-        <v>677</v>
+        <v>625</v>
       </c>
       <c r="K27" s="30" t="s">
         <v>26</v>
@@ -4003,13 +3859,13 @@
         <v>71</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>671</v>
+        <v>619</v>
       </c>
       <c r="C28" s="30" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>674</v>
+        <v>622</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>24</v>
@@ -4018,7 +3874,7 @@
         <v>74</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>664</v>
+        <v>612</v>
       </c>
       <c r="H28" s="30" t="s">
         <v>23</v>
@@ -4027,7 +3883,7 @@
         <v>24</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>736</v>
+        <v>684</v>
       </c>
       <c r="K28" s="30" t="s">
         <v>26</v>
@@ -4038,13 +3894,13 @@
         <v>71</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>668</v>
+        <v>616</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>72</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>675</v>
+        <v>623</v>
       </c>
       <c r="E29" s="30" t="s">
         <v>24</v>
@@ -4053,7 +3909,7 @@
         <v>74</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>664</v>
+        <v>612</v>
       </c>
       <c r="H29" s="30" t="s">
         <v>23</v>
@@ -4062,7 +3918,7 @@
         <v>24</v>
       </c>
       <c r="J29" s="30" t="s">
-        <v>736</v>
+        <v>684</v>
       </c>
       <c r="K29" s="30" t="s">
         <v>26</v>
@@ -4073,13 +3929,13 @@
         <v>71</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>672</v>
+        <v>620</v>
       </c>
       <c r="C30" s="30" t="s">
         <v>72</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>676</v>
+        <v>624</v>
       </c>
       <c r="E30" s="30" t="s">
         <v>24</v>
@@ -4088,7 +3944,7 @@
         <v>74</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>664</v>
+        <v>612</v>
       </c>
       <c r="H30" s="30" t="s">
         <v>23</v>
@@ -4097,7 +3953,7 @@
         <v>24</v>
       </c>
       <c r="J30" s="30" t="s">
-        <v>736</v>
+        <v>684</v>
       </c>
       <c r="K30" s="30" t="s">
         <v>26</v>
@@ -4108,13 +3964,13 @@
         <v>71</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>673</v>
+        <v>621</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>72</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>678</v>
+        <v>626</v>
       </c>
       <c r="E31" s="30" t="s">
         <v>24</v>
@@ -4123,7 +3979,7 @@
         <v>74</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>664</v>
+        <v>612</v>
       </c>
       <c r="H31" s="30" t="s">
         <v>23</v>
@@ -4132,7 +3988,7 @@
         <v>24</v>
       </c>
       <c r="J31" s="30" t="s">
-        <v>736</v>
+        <v>684</v>
       </c>
       <c r="K31" s="30" t="s">
         <v>26</v>
@@ -4194,7 +4050,7 @@
         <v>24</v>
       </c>
       <c r="J33" s="32" t="s">
-        <v>742</v>
+        <v>690</v>
       </c>
       <c r="K33" s="32" t="s">
         <v>26</v>
@@ -4329,13 +4185,13 @@
         <v>18</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>651</v>
+        <v>599</v>
       </c>
       <c r="C38" s="33" t="s">
         <v>20</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>744</v>
+        <v>692</v>
       </c>
       <c r="E38" s="33" t="s">
         <v>24</v>
@@ -4349,7 +4205,7 @@
         <v>24</v>
       </c>
       <c r="J38" s="33" t="s">
-        <v>743</v>
+        <v>691</v>
       </c>
       <c r="K38" s="33" t="s">
         <v>26</v>
@@ -4380,7 +4236,7 @@
         <v>24</v>
       </c>
       <c r="J39" s="26" t="s">
-        <v>659</v>
+        <v>607</v>
       </c>
       <c r="K39" s="26" t="s">
         <v>26</v>
@@ -4411,7 +4267,7 @@
         <v>24</v>
       </c>
       <c r="J40" s="26" t="s">
-        <v>660</v>
+        <v>608</v>
       </c>
       <c r="K40" s="26" t="s">
         <v>26</v>
@@ -4422,13 +4278,13 @@
         <v>47</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>617</v>
+        <v>565</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>654</v>
+        <v>602</v>
       </c>
       <c r="E41" s="26" t="s">
         <v>24</v>
@@ -4453,13 +4309,13 @@
         <v>47</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>618</v>
+        <v>566</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>655</v>
+        <v>603</v>
       </c>
       <c r="E42" s="26" t="s">
         <v>24</v>
@@ -4473,7 +4329,7 @@
         <v>24</v>
       </c>
       <c r="J42" s="26" t="s">
-        <v>661</v>
+        <v>609</v>
       </c>
       <c r="K42" s="26" t="s">
         <v>26</v>
@@ -4566,7 +4422,7 @@
         <v>24</v>
       </c>
       <c r="J45" s="26" t="s">
-        <v>656</v>
+        <v>604</v>
       </c>
       <c r="K45" s="26" t="s">
         <v>26</v>
@@ -4577,13 +4433,13 @@
         <v>47</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>619</v>
+        <v>567</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>657</v>
+        <v>605</v>
       </c>
       <c r="E46" s="26" t="s">
         <v>24</v>
@@ -4597,7 +4453,7 @@
         <v>24</v>
       </c>
       <c r="J46" s="26" t="s">
-        <v>662</v>
+        <v>610</v>
       </c>
       <c r="K46" s="26" t="s">
         <v>26</v>
@@ -4608,13 +4464,13 @@
         <v>47</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>620</v>
+        <v>568</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>658</v>
+        <v>606</v>
       </c>
       <c r="E47" s="26" t="s">
         <v>24</v>
@@ -4628,7 +4484,7 @@
         <v>24</v>
       </c>
       <c r="J47" s="26" t="s">
-        <v>663</v>
+        <v>611</v>
       </c>
       <c r="K47" s="26" t="s">
         <v>26</v>
@@ -4639,13 +4495,13 @@
         <v>114</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>680</v>
+        <v>628</v>
       </c>
       <c r="C48" s="34" t="s">
         <v>72</v>
       </c>
       <c r="D48" s="34" t="s">
-        <v>685</v>
+        <v>633</v>
       </c>
       <c r="E48" s="34" t="s">
         <v>24</v>
@@ -4657,7 +4513,7 @@
         <v>24</v>
       </c>
       <c r="J48" s="34" t="s">
-        <v>686</v>
+        <v>634</v>
       </c>
       <c r="K48" s="34" t="s">
         <v>26</v>
@@ -4668,13 +4524,13 @@
         <v>114</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>681</v>
+        <v>629</v>
       </c>
       <c r="C49" s="34" t="s">
         <v>72</v>
       </c>
       <c r="D49" s="34" t="s">
-        <v>687</v>
+        <v>635</v>
       </c>
       <c r="E49" s="34" t="s">
         <v>24</v>
@@ -4686,7 +4542,7 @@
         <v>24</v>
       </c>
       <c r="J49" s="34" t="s">
-        <v>686</v>
+        <v>634</v>
       </c>
       <c r="K49" s="34" t="s">
         <v>26</v>
@@ -4697,13 +4553,13 @@
         <v>114</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>682</v>
+        <v>630</v>
       </c>
       <c r="C50" s="34" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="34" t="s">
-        <v>688</v>
+        <v>636</v>
       </c>
       <c r="E50" s="34" t="s">
         <v>24</v>
@@ -4715,7 +4571,7 @@
         <v>24</v>
       </c>
       <c r="J50" s="34" t="s">
-        <v>686</v>
+        <v>634</v>
       </c>
       <c r="K50" s="34" t="s">
         <v>26</v>
@@ -4726,13 +4582,13 @@
         <v>114</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>683</v>
+        <v>631</v>
       </c>
       <c r="C51" s="34" t="s">
         <v>72</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>689</v>
+        <v>637</v>
       </c>
       <c r="E51" s="34" t="s">
         <v>24</v>
@@ -4744,7 +4600,7 @@
         <v>24</v>
       </c>
       <c r="J51" s="34" t="s">
-        <v>686</v>
+        <v>634</v>
       </c>
       <c r="K51" s="34" t="s">
         <v>26</v>
@@ -4755,13 +4611,13 @@
         <v>114</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>684</v>
+        <v>632</v>
       </c>
       <c r="C52" s="34" t="s">
         <v>72</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>690</v>
+        <v>638</v>
       </c>
       <c r="E52" s="34" t="s">
         <v>24</v>
@@ -4773,7 +4629,7 @@
         <v>24</v>
       </c>
       <c r="J52" s="34" t="s">
-        <v>686</v>
+        <v>634</v>
       </c>
       <c r="K52" s="34" t="s">
         <v>26</v>
@@ -4784,13 +4640,13 @@
         <v>114</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>684</v>
+        <v>632</v>
       </c>
       <c r="C53" s="34" t="s">
         <v>72</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>691</v>
+        <v>639</v>
       </c>
       <c r="E53" s="34" t="s">
         <v>24</v>
@@ -4802,7 +4658,7 @@
         <v>24</v>
       </c>
       <c r="J53" s="34" t="s">
-        <v>686</v>
+        <v>634</v>
       </c>
       <c r="K53" s="34" t="s">
         <v>26</v>
@@ -4810,16 +4666,16 @@
     </row>
     <row r="54" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A54" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C54" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>694</v>
+        <v>642</v>
       </c>
       <c r="E54" s="37" t="s">
         <v>24</v>
@@ -4833,7 +4689,7 @@
         <v>24</v>
       </c>
       <c r="J54" s="37" t="s">
-        <v>723</v>
+        <v>671</v>
       </c>
       <c r="K54" s="37" t="s">
         <v>26</v>
@@ -4841,16 +4697,16 @@
     </row>
     <row r="55" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A55" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C55" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D55" s="37" t="s">
-        <v>695</v>
+        <v>643</v>
       </c>
       <c r="E55" s="37" t="s">
         <v>24</v>
@@ -4864,7 +4720,7 @@
         <v>24</v>
       </c>
       <c r="J55" s="37" t="s">
-        <v>724</v>
+        <v>672</v>
       </c>
       <c r="K55" s="37" t="s">
         <v>26</v>
@@ -4872,16 +4728,16 @@
     </row>
     <row r="56" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A56" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C56" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>696</v>
+        <v>644</v>
       </c>
       <c r="E56" s="37" t="s">
         <v>24</v>
@@ -4895,7 +4751,7 @@
         <v>24</v>
       </c>
       <c r="J56" s="37" t="s">
-        <v>724</v>
+        <v>672</v>
       </c>
       <c r="K56" s="37" t="s">
         <v>26</v>
@@ -4903,16 +4759,16 @@
     </row>
     <row r="57" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A57" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C57" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>697</v>
+        <v>645</v>
       </c>
       <c r="E57" s="37" t="s">
         <v>24</v>
@@ -4926,7 +4782,7 @@
         <v>24</v>
       </c>
       <c r="J57" s="37" t="s">
-        <v>724</v>
+        <v>672</v>
       </c>
       <c r="K57" s="37" t="s">
         <v>26</v>
@@ -4934,16 +4790,16 @@
     </row>
     <row r="58" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A58" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C58" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>698</v>
+        <v>646</v>
       </c>
       <c r="E58" s="37" t="s">
         <v>24</v>
@@ -4957,7 +4813,7 @@
         <v>24</v>
       </c>
       <c r="J58" s="37" t="s">
-        <v>725</v>
+        <v>673</v>
       </c>
       <c r="K58" s="37" t="s">
         <v>26</v>
@@ -4965,16 +4821,16 @@
     </row>
     <row r="59" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A59" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>624</v>
+        <v>572</v>
       </c>
       <c r="C59" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D59" s="37" t="s">
-        <v>699</v>
+        <v>647</v>
       </c>
       <c r="E59" s="37" t="s">
         <v>24</v>
@@ -4988,7 +4844,7 @@
         <v>24</v>
       </c>
       <c r="J59" s="37" t="s">
-        <v>725</v>
+        <v>673</v>
       </c>
       <c r="K59" s="37" t="s">
         <v>26</v>
@@ -4996,16 +4852,16 @@
     </row>
     <row r="60" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A60" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>625</v>
+        <v>573</v>
       </c>
       <c r="C60" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D60" s="37" t="s">
-        <v>700</v>
+        <v>648</v>
       </c>
       <c r="E60" s="37" t="s">
         <v>24</v>
@@ -5019,7 +4875,7 @@
         <v>24</v>
       </c>
       <c r="J60" s="37" t="s">
-        <v>725</v>
+        <v>673</v>
       </c>
       <c r="K60" s="37" t="s">
         <v>26</v>
@@ -5027,16 +4883,16 @@
     </row>
     <row r="61" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A61" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C61" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D61" s="37" t="s">
-        <v>701</v>
+        <v>649</v>
       </c>
       <c r="E61" s="37" t="s">
         <v>24</v>
@@ -5050,7 +4906,7 @@
         <v>24</v>
       </c>
       <c r="J61" s="37" t="s">
-        <v>726</v>
+        <v>674</v>
       </c>
       <c r="K61" s="37" t="s">
         <v>26</v>
@@ -5058,16 +4914,16 @@
     </row>
     <row r="62" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A62" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>626</v>
+        <v>574</v>
       </c>
       <c r="C62" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D62" s="37" t="s">
-        <v>702</v>
+        <v>650</v>
       </c>
       <c r="E62" s="37" t="s">
         <v>24</v>
@@ -5081,7 +4937,7 @@
         <v>24</v>
       </c>
       <c r="J62" s="37" t="s">
-        <v>728</v>
+        <v>676</v>
       </c>
       <c r="K62" s="37" t="s">
         <v>26</v>
@@ -5089,16 +4945,16 @@
     </row>
     <row r="63" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A63" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B63" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C63" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D63" s="37" t="s">
-        <v>703</v>
+        <v>651</v>
       </c>
       <c r="E63" s="37" t="s">
         <v>24</v>
@@ -5112,7 +4968,7 @@
         <v>24</v>
       </c>
       <c r="J63" s="37" t="s">
-        <v>728</v>
+        <v>676</v>
       </c>
       <c r="K63" s="37" t="s">
         <v>26</v>
@@ -5120,16 +4976,16 @@
     </row>
     <row r="64" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A64" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C64" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D64" s="37" t="s">
-        <v>704</v>
+        <v>652</v>
       </c>
       <c r="E64" s="37" t="s">
         <v>24</v>
@@ -5143,7 +4999,7 @@
         <v>24</v>
       </c>
       <c r="J64" s="37" t="s">
-        <v>728</v>
+        <v>676</v>
       </c>
       <c r="K64" s="37" t="s">
         <v>26</v>
@@ -5151,16 +5007,16 @@
     </row>
     <row r="65" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A65" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C65" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D65" s="37" t="s">
-        <v>705</v>
+        <v>653</v>
       </c>
       <c r="E65" s="37" t="s">
         <v>24</v>
@@ -5174,7 +5030,7 @@
         <v>24</v>
       </c>
       <c r="J65" s="37" t="s">
-        <v>728</v>
+        <v>676</v>
       </c>
       <c r="K65" s="37" t="s">
         <v>26</v>
@@ -5182,16 +5038,16 @@
     </row>
     <row r="66" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A66" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C66" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D66" s="37" t="s">
-        <v>707</v>
+        <v>655</v>
       </c>
       <c r="E66" s="37" t="s">
         <v>24</v>
@@ -5205,7 +5061,7 @@
         <v>24</v>
       </c>
       <c r="J66" s="37" t="s">
-        <v>727</v>
+        <v>675</v>
       </c>
       <c r="K66" s="37" t="s">
         <v>26</v>
@@ -5213,16 +5069,16 @@
     </row>
     <row r="67" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A67" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C67" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D67" s="37" t="s">
-        <v>708</v>
+        <v>656</v>
       </c>
       <c r="E67" s="37" t="s">
         <v>24</v>
@@ -5236,7 +5092,7 @@
         <v>24</v>
       </c>
       <c r="J67" s="37" t="s">
-        <v>727</v>
+        <v>675</v>
       </c>
       <c r="K67" s="37" t="s">
         <v>26</v>
@@ -5244,16 +5100,16 @@
     </row>
     <row r="68" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A68" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C68" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D68" s="37" t="s">
-        <v>706</v>
+        <v>654</v>
       </c>
       <c r="E68" s="37" t="s">
         <v>24</v>
@@ -5267,7 +5123,7 @@
         <v>24</v>
       </c>
       <c r="J68" s="37" t="s">
-        <v>727</v>
+        <v>675</v>
       </c>
       <c r="K68" s="37" t="s">
         <v>26</v>
@@ -5275,16 +5131,16 @@
     </row>
     <row r="69" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A69" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C69" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D69" s="37" t="s">
-        <v>709</v>
+        <v>657</v>
       </c>
       <c r="E69" s="37" t="s">
         <v>24</v>
@@ -5298,7 +5154,7 @@
         <v>24</v>
       </c>
       <c r="J69" s="37" t="s">
-        <v>727</v>
+        <v>675</v>
       </c>
       <c r="K69" s="37" t="s">
         <v>26</v>
@@ -5306,16 +5162,16 @@
     </row>
     <row r="70" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A70" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C70" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D70" s="37" t="s">
-        <v>710</v>
+        <v>658</v>
       </c>
       <c r="E70" s="37" t="s">
         <v>24</v>
@@ -5329,7 +5185,7 @@
         <v>24</v>
       </c>
       <c r="J70" s="37" t="s">
-        <v>727</v>
+        <v>675</v>
       </c>
       <c r="K70" s="37" t="s">
         <v>26</v>
@@ -5337,16 +5193,16 @@
     </row>
     <row r="71" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A71" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C71" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D71" s="37" t="s">
-        <v>711</v>
+        <v>659</v>
       </c>
       <c r="E71" s="37" t="s">
         <v>24</v>
@@ -5360,7 +5216,7 @@
         <v>24</v>
       </c>
       <c r="J71" s="37" t="s">
-        <v>723</v>
+        <v>671</v>
       </c>
       <c r="K71" s="37" t="s">
         <v>26</v>
@@ -5368,16 +5224,16 @@
     </row>
     <row r="72" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A72" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C72" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D72" s="37" t="s">
-        <v>712</v>
+        <v>660</v>
       </c>
       <c r="E72" s="37" t="s">
         <v>24</v>
@@ -5391,7 +5247,7 @@
         <v>24</v>
       </c>
       <c r="J72" s="37" t="s">
-        <v>724</v>
+        <v>672</v>
       </c>
       <c r="K72" s="37" t="s">
         <v>26</v>
@@ -5399,16 +5255,16 @@
     </row>
     <row r="73" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A73" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B73" s="37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C73" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D73" s="37" t="s">
-        <v>713</v>
+        <v>661</v>
       </c>
       <c r="E73" s="37" t="s">
         <v>24</v>
@@ -5422,7 +5278,7 @@
         <v>24</v>
       </c>
       <c r="J73" s="37" t="s">
-        <v>725</v>
+        <v>673</v>
       </c>
       <c r="K73" s="37" t="s">
         <v>26</v>
@@ -5430,16 +5286,16 @@
     </row>
     <row r="74" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A74" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C74" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D74" s="37" t="s">
-        <v>714</v>
+        <v>662</v>
       </c>
       <c r="E74" s="37" t="s">
         <v>24</v>
@@ -5453,7 +5309,7 @@
         <v>24</v>
       </c>
       <c r="J74" s="37" t="s">
-        <v>726</v>
+        <v>674</v>
       </c>
       <c r="K74" s="37" t="s">
         <v>26</v>
@@ -5461,16 +5317,16 @@
     </row>
     <row r="75" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A75" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C75" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>715</v>
+        <v>663</v>
       </c>
       <c r="E75" s="37" t="s">
         <v>24</v>
@@ -5484,7 +5340,7 @@
         <v>24</v>
       </c>
       <c r="J75" s="37" t="s">
-        <v>728</v>
+        <v>676</v>
       </c>
       <c r="K75" s="37" t="s">
         <v>26</v>
@@ -5492,16 +5348,16 @@
     </row>
     <row r="76" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A76" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C76" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D76" s="37" t="s">
-        <v>716</v>
+        <v>664</v>
       </c>
       <c r="E76" s="37" t="s">
         <v>24</v>
@@ -5515,7 +5371,7 @@
         <v>24</v>
       </c>
       <c r="J76" s="37" t="s">
-        <v>727</v>
+        <v>675</v>
       </c>
       <c r="K76" s="37" t="s">
         <v>26</v>
@@ -5523,16 +5379,16 @@
     </row>
     <row r="77" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A77" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C77" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D77" s="37" t="s">
-        <v>711</v>
+        <v>659</v>
       </c>
       <c r="E77" s="37" t="s">
         <v>24</v>
@@ -5546,7 +5402,7 @@
         <v>24</v>
       </c>
       <c r="J77" s="37" t="s">
-        <v>723</v>
+        <v>671</v>
       </c>
       <c r="K77" s="37" t="s">
         <v>26</v>
@@ -5554,16 +5410,16 @@
     </row>
     <row r="78" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A78" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C78" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D78" s="37" t="s">
-        <v>712</v>
+        <v>660</v>
       </c>
       <c r="E78" s="37" t="s">
         <v>24</v>
@@ -5577,7 +5433,7 @@
         <v>24</v>
       </c>
       <c r="J78" s="37" t="s">
-        <v>724</v>
+        <v>672</v>
       </c>
       <c r="K78" s="37" t="s">
         <v>26</v>
@@ -5585,16 +5441,16 @@
     </row>
     <row r="79" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A79" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B79" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C79" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D79" s="37" t="s">
-        <v>713</v>
+        <v>661</v>
       </c>
       <c r="E79" s="37" t="s">
         <v>24</v>
@@ -5608,7 +5464,7 @@
         <v>24</v>
       </c>
       <c r="J79" s="37" t="s">
-        <v>725</v>
+        <v>673</v>
       </c>
       <c r="K79" s="37" t="s">
         <v>26</v>
@@ -5616,16 +5472,16 @@
     </row>
     <row r="80" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A80" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C80" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D80" s="37" t="s">
-        <v>714</v>
+        <v>662</v>
       </c>
       <c r="E80" s="37" t="s">
         <v>24</v>
@@ -5639,7 +5495,7 @@
         <v>24</v>
       </c>
       <c r="J80" s="37" t="s">
-        <v>726</v>
+        <v>674</v>
       </c>
       <c r="K80" s="37" t="s">
         <v>26</v>
@@ -5647,16 +5503,16 @@
     </row>
     <row r="81" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A81" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C81" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D81" s="37" t="s">
-        <v>715</v>
+        <v>663</v>
       </c>
       <c r="E81" s="37" t="s">
         <v>24</v>
@@ -5670,7 +5526,7 @@
         <v>24</v>
       </c>
       <c r="J81" s="37" t="s">
-        <v>728</v>
+        <v>676</v>
       </c>
       <c r="K81" s="37" t="s">
         <v>26</v>
@@ -5678,16 +5534,16 @@
     </row>
     <row r="82" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A82" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C82" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D82" s="37" t="s">
-        <v>716</v>
+        <v>664</v>
       </c>
       <c r="E82" s="37" t="s">
         <v>24</v>
@@ -5701,7 +5557,7 @@
         <v>24</v>
       </c>
       <c r="J82" s="37" t="s">
-        <v>727</v>
+        <v>675</v>
       </c>
       <c r="K82" s="37" t="s">
         <v>26</v>
@@ -5709,16 +5565,16 @@
     </row>
     <row r="83" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A83" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C83" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D83" s="37" t="s">
-        <v>717</v>
+        <v>665</v>
       </c>
       <c r="E83" s="37" t="s">
         <v>24</v>
@@ -5732,7 +5588,7 @@
         <v>24</v>
       </c>
       <c r="J83" s="37" t="s">
-        <v>729</v>
+        <v>677</v>
       </c>
       <c r="K83" s="37" t="s">
         <v>26</v>
@@ -5740,16 +5596,16 @@
     </row>
     <row r="84" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A84" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C84" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D84" s="37" t="s">
-        <v>718</v>
+        <v>666</v>
       </c>
       <c r="E84" s="37" t="s">
         <v>24</v>
@@ -5763,7 +5619,7 @@
         <v>24</v>
       </c>
       <c r="J84" s="37" t="s">
-        <v>729</v>
+        <v>677</v>
       </c>
       <c r="K84" s="37" t="s">
         <v>26</v>
@@ -5771,16 +5627,16 @@
     </row>
     <row r="85" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A85" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C85" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D85" s="37" t="s">
-        <v>719</v>
+        <v>667</v>
       </c>
       <c r="E85" s="37" t="s">
         <v>24</v>
@@ -5794,7 +5650,7 @@
         <v>24</v>
       </c>
       <c r="J85" s="37" t="s">
-        <v>729</v>
+        <v>677</v>
       </c>
       <c r="K85" s="37" t="s">
         <v>26</v>
@@ -5802,16 +5658,16 @@
     </row>
     <row r="86" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A86" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B86" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>720</v>
+        <v>668</v>
       </c>
       <c r="D86" s="37" t="s">
-        <v>721</v>
+        <v>669</v>
       </c>
       <c r="E86" s="37" t="s">
         <v>24</v>
@@ -5825,7 +5681,7 @@
         <v>24</v>
       </c>
       <c r="J86" s="37" t="s">
-        <v>729</v>
+        <v>677</v>
       </c>
       <c r="K86" s="37" t="s">
         <v>26</v>
@@ -5833,16 +5689,16 @@
     </row>
     <row r="87" spans="1:11" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A87" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>627</v>
+        <v>575</v>
       </c>
       <c r="C87" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D87" s="37" t="s">
-        <v>722</v>
+        <v>670</v>
       </c>
       <c r="E87" s="37" t="s">
         <v>24</v>
@@ -5856,7 +5712,7 @@
         <v>24</v>
       </c>
       <c r="J87" s="37" t="s">
-        <v>729</v>
+        <v>677</v>
       </c>
       <c r="K87" s="37" t="s">
         <v>26</v>
@@ -5876,8 +5732,8 @@
   <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -5909,10 +5765,10 @@
         <v>119</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>745</v>
+        <v>693</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>665</v>
+        <v>613</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>17</v>
@@ -6524,19 +6380,19 @@
         <v>115</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>614</v>
+        <v>562</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>587</v>
+        <v>535</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>588</v>
+        <v>536</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>42</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>730</v>
+        <v>678</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>26</v>
@@ -6550,19 +6406,19 @@
         <v>115</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>615</v>
+        <v>563</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>589</v>
+        <v>537</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>590</v>
+        <v>538</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>42</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>730</v>
+        <v>678</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>26</v>
@@ -6576,19 +6432,19 @@
         <v>115</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>591</v>
+        <v>539</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>594</v>
+        <v>542</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>593</v>
+        <v>541</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>23</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>732</v>
+        <v>680</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>26</v>
@@ -6602,19 +6458,19 @@
         <v>115</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>592</v>
+        <v>540</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>595</v>
+        <v>543</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>599</v>
+        <v>547</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>23</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>732</v>
+        <v>680</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>26</v>
@@ -6628,19 +6484,19 @@
         <v>115</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>596</v>
+        <v>544</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>600</v>
+        <v>548</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>601</v>
+        <v>549</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>42</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>733</v>
+        <v>681</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>26</v>
@@ -6654,19 +6510,19 @@
         <v>20</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>597</v>
+        <v>545</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>598</v>
+        <v>546</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>602</v>
+        <v>550</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>23</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>734</v>
+        <v>682</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>26</v>
@@ -6680,19 +6536,19 @@
         <v>115</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>603</v>
+        <v>551</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>610</v>
+        <v>558</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>637</v>
+        <v>585</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>42</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>735</v>
+        <v>683</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>26</v>
@@ -6706,19 +6562,19 @@
         <v>115</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>604</v>
+        <v>552</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>611</v>
+        <v>559</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>638</v>
+        <v>586</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>42</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>735</v>
+        <v>683</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>26</v>
@@ -6732,19 +6588,19 @@
         <v>115</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>605</v>
+        <v>553</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>635</v>
+        <v>583</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>639</v>
+        <v>587</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>42</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>735</v>
+        <v>683</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>26</v>
@@ -6758,19 +6614,19 @@
         <v>115</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>607</v>
+        <v>555</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>636</v>
+        <v>584</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>640</v>
+        <v>588</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>42</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>735</v>
+        <v>683</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>26</v>
@@ -6784,19 +6640,19 @@
         <v>115</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>616</v>
+        <v>564</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>634</v>
+        <v>582</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>641</v>
+        <v>589</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>23</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>737</v>
+        <v>685</v>
       </c>
       <c r="H35" s="12" t="s">
         <v>26</v>
@@ -6810,19 +6666,19 @@
         <v>115</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>608</v>
+        <v>556</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>633</v>
+        <v>581</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>642</v>
+        <v>590</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>23</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>737</v>
+        <v>685</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>26</v>
@@ -6836,19 +6692,19 @@
         <v>115</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>609</v>
+        <v>557</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>632</v>
+        <v>580</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>643</v>
+        <v>591</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>23</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>737</v>
+        <v>685</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>26</v>
@@ -6862,19 +6718,19 @@
         <v>115</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>606</v>
+        <v>554</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>679</v>
+        <v>627</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>644</v>
+        <v>592</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>23</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>737</v>
+        <v>685</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>26</v>
@@ -6888,19 +6744,19 @@
         <v>115</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>612</v>
+        <v>560</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>629</v>
+        <v>577</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>645</v>
+        <v>593</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>42</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>738</v>
+        <v>686</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>26</v>
@@ -6914,19 +6770,19 @@
         <v>115</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>613</v>
+        <v>561</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>630</v>
+        <v>578</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>646</v>
+        <v>594</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>42</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>738</v>
+        <v>686</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>26</v>
@@ -6940,19 +6796,19 @@
         <v>115</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>628</v>
+        <v>576</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>631</v>
+        <v>579</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>647</v>
+        <v>595</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>23</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>739</v>
+        <v>687</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>26</v>
@@ -6963,22 +6819,22 @@
         <v>114</v>
       </c>
       <c r="B42" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="D42" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="E42" s="13" t="s">
         <v>218</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>219</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>740</v>
+        <v>688</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>26</v>
@@ -6989,22 +6845,22 @@
         <v>114</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C43" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="E43" s="13" t="s">
         <v>221</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>222</v>
       </c>
       <c r="F43" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>740</v>
+        <v>688</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>26</v>
@@ -7015,22 +6871,22 @@
         <v>114</v>
       </c>
       <c r="B44" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="D44" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="E44" s="13" t="s">
         <v>225</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>226</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>740</v>
+        <v>688</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>26</v>
@@ -7041,22 +6897,22 @@
         <v>114</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C45" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="E45" s="13" t="s">
         <v>228</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>229</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>740</v>
+        <v>688</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>26</v>
@@ -7067,22 +6923,22 @@
         <v>114</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C46" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="E46" s="13" t="s">
         <v>231</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>232</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>740</v>
+        <v>688</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>26</v>
@@ -7093,22 +6949,22 @@
         <v>114</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C47" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D47" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="E47" s="13" t="s">
         <v>234</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>235</v>
       </c>
       <c r="F47" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>740</v>
+        <v>688</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>26</v>
@@ -7119,22 +6975,22 @@
         <v>114</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>621</v>
+        <v>569</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>582</v>
+        <v>530</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>584</v>
+        <v>532</v>
       </c>
       <c r="F48" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>740</v>
+        <v>688</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>26</v>
@@ -7145,22 +7001,22 @@
         <v>114</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>622</v>
+        <v>570</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>581</v>
+        <v>529</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>585</v>
+        <v>533</v>
       </c>
       <c r="F49" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>740</v>
+        <v>688</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>26</v>
@@ -7171,22 +7027,22 @@
         <v>114</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>623</v>
+        <v>571</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>583</v>
+        <v>531</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>586</v>
+        <v>534</v>
       </c>
       <c r="F50" s="13" t="s">
         <v>42</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>740</v>
+        <v>688</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>26</v>
@@ -7200,19 +7056,19 @@
         <v>115</v>
       </c>
       <c r="C51" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D51" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="E51" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="E51" s="13" t="s">
-        <v>238</v>
-      </c>
       <c r="F51" s="13" t="s">
         <v>23</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>741</v>
+        <v>689</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>26</v>
@@ -7226,19 +7082,19 @@
         <v>115</v>
       </c>
       <c r="C52" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D52" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="E52" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="E52" s="13" t="s">
-        <v>241</v>
-      </c>
       <c r="F52" s="13" t="s">
         <v>23</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>741</v>
+        <v>689</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>26</v>
@@ -7252,19 +7108,19 @@
         <v>115</v>
       </c>
       <c r="C53" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D53" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="E53" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="E53" s="13" t="s">
-        <v>244</v>
-      </c>
       <c r="F53" s="13" t="s">
         <v>23</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>741</v>
+        <v>689</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>26</v>
@@ -7278,19 +7134,19 @@
         <v>115</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>576</v>
+        <v>524</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>580</v>
+        <v>528</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>23</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>741</v>
+        <v>689</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>26</v>
@@ -7304,19 +7160,19 @@
         <v>115</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>577</v>
+        <v>525</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>579</v>
+        <v>527</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>23</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>741</v>
+        <v>689</v>
       </c>
       <c r="H55" s="13" t="s">
         <v>26</v>
@@ -7330,19 +7186,19 @@
         <v>115</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>577</v>
+        <v>525</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>578</v>
+        <v>526</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>23</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>741</v>
+        <v>689</v>
       </c>
       <c r="H56" s="13" t="s">
         <v>26</v>
@@ -7376,25 +7232,25 @@
     </row>
     <row r="58" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A58" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B58" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="C58" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="D58" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="D58" s="15" t="s">
+      <c r="E58" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="E58" s="15" t="s">
-        <v>249</v>
-      </c>
       <c r="F58" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>723</v>
+        <v>671</v>
       </c>
       <c r="H58" s="15" t="s">
         <v>26</v>
@@ -7402,25 +7258,25 @@
     </row>
     <row r="59" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A59" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B59" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B59" s="15" t="s">
-        <v>246</v>
-      </c>
       <c r="C59" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="D59" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="E59" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="E59" s="15" t="s">
-        <v>252</v>
-      </c>
       <c r="F59" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>724</v>
+        <v>672</v>
       </c>
       <c r="H59" s="15" t="s">
         <v>26</v>
@@ -7428,25 +7284,25 @@
     </row>
     <row r="60" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A60" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B60" s="15" t="s">
-        <v>246</v>
-      </c>
       <c r="C60" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="D60" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="D60" s="15" t="s">
+      <c r="E60" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="E60" s="15" t="s">
-        <v>255</v>
-      </c>
       <c r="F60" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>724</v>
+        <v>672</v>
       </c>
       <c r="H60" s="15" t="s">
         <v>26</v>
@@ -7454,25 +7310,25 @@
     </row>
     <row r="61" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A61" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B61" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B61" s="15" t="s">
-        <v>246</v>
-      </c>
       <c r="C61" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="D61" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="E61" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="E61" s="15" t="s">
-        <v>258</v>
-      </c>
       <c r="F61" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>724</v>
+        <v>672</v>
       </c>
       <c r="H61" s="15" t="s">
         <v>26</v>
@@ -7480,25 +7336,25 @@
     </row>
     <row r="62" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A62" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B62" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B62" s="15" t="s">
-        <v>246</v>
-      </c>
       <c r="C62" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="D62" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="D62" s="15" t="s">
+      <c r="E62" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="E62" s="15" t="s">
-        <v>261</v>
-      </c>
       <c r="F62" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>725</v>
+        <v>673</v>
       </c>
       <c r="H62" s="15" t="s">
         <v>26</v>
@@ -7506,25 +7362,25 @@
     </row>
     <row r="63" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A63" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B63" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B63" s="15" t="s">
-        <v>246</v>
-      </c>
       <c r="C63" s="15" t="s">
-        <v>624</v>
+        <v>572</v>
       </c>
       <c r="D63" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="E63" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="E63" s="15" t="s">
-        <v>263</v>
-      </c>
       <c r="F63" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>725</v>
+        <v>673</v>
       </c>
       <c r="H63" s="15" t="s">
         <v>26</v>
@@ -7532,25 +7388,25 @@
     </row>
     <row r="64" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A64" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B64" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B64" s="15" t="s">
-        <v>246</v>
-      </c>
       <c r="C64" s="15" t="s">
-        <v>625</v>
+        <v>573</v>
       </c>
       <c r="D64" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="E64" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="E64" s="15" t="s">
-        <v>265</v>
-      </c>
       <c r="F64" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>725</v>
+        <v>673</v>
       </c>
       <c r="H64" s="15" t="s">
         <v>26</v>
@@ -7558,25 +7414,25 @@
     </row>
     <row r="65" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A65" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B65" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B65" s="15" t="s">
-        <v>246</v>
-      </c>
       <c r="C65" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="D65" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="D65" s="15" t="s">
+      <c r="E65" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="E65" s="15" t="s">
-        <v>268</v>
-      </c>
       <c r="F65" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>726</v>
+        <v>674</v>
       </c>
       <c r="H65" s="15" t="s">
         <v>26</v>
@@ -7584,25 +7440,25 @@
     </row>
     <row r="66" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A66" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B66" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B66" s="15" t="s">
-        <v>246</v>
-      </c>
       <c r="C66" s="15" t="s">
-        <v>626</v>
+        <v>574</v>
       </c>
       <c r="D66" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="E66" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="E66" s="15" t="s">
-        <v>270</v>
-      </c>
       <c r="F66" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>728</v>
+        <v>676</v>
       </c>
       <c r="H66" s="15" t="s">
         <v>26</v>
@@ -7610,25 +7466,25 @@
     </row>
     <row r="67" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A67" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B67" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B67" s="15" t="s">
-        <v>246</v>
-      </c>
       <c r="C67" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="E67" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="D67" s="15" t="s">
-        <v>649</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>272</v>
-      </c>
       <c r="F67" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>728</v>
+        <v>676</v>
       </c>
       <c r="H67" s="15" t="s">
         <v>26</v>
@@ -7636,25 +7492,25 @@
     </row>
     <row r="68" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A68" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B68" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B68" s="15" t="s">
-        <v>246</v>
-      </c>
       <c r="C68" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="E68" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="D68" s="15" t="s">
-        <v>650</v>
-      </c>
-      <c r="E68" s="15" t="s">
-        <v>274</v>
-      </c>
       <c r="F68" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>728</v>
+        <v>676</v>
       </c>
       <c r="H68" s="15" t="s">
         <v>26</v>
@@ -7662,25 +7518,25 @@
     </row>
     <row r="69" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A69" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B69" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B69" s="15" t="s">
-        <v>246</v>
-      </c>
       <c r="C69" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D69" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="D69" s="15" t="s">
+      <c r="E69" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="E69" s="15" t="s">
-        <v>277</v>
-      </c>
       <c r="F69" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>728</v>
+        <v>676</v>
       </c>
       <c r="H69" s="15" t="s">
         <v>26</v>
@@ -7688,25 +7544,25 @@
     </row>
     <row r="70" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A70" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B70" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B70" s="15" t="s">
-        <v>246</v>
-      </c>
       <c r="C70" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D70" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="D70" s="15" t="s">
+      <c r="E70" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="E70" s="15" t="s">
-        <v>280</v>
-      </c>
       <c r="F70" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>727</v>
+        <v>675</v>
       </c>
       <c r="H70" s="15" t="s">
         <v>26</v>
@@ -7714,25 +7570,25 @@
     </row>
     <row r="71" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A71" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B71" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B71" s="15" t="s">
-        <v>246</v>
-      </c>
       <c r="C71" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D71" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="D71" s="15" t="s">
+      <c r="E71" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="E71" s="15" t="s">
-        <v>283</v>
-      </c>
       <c r="F71" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>727</v>
+        <v>675</v>
       </c>
       <c r="H71" s="15" t="s">
         <v>26</v>
@@ -7740,25 +7596,25 @@
     </row>
     <row r="72" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A72" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B72" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B72" s="15" t="s">
-        <v>246</v>
-      </c>
       <c r="C72" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="D72" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="D72" s="15" t="s">
+      <c r="E72" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="E72" s="15" t="s">
-        <v>286</v>
-      </c>
       <c r="F72" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>727</v>
+        <v>675</v>
       </c>
       <c r="H72" s="15" t="s">
         <v>26</v>
@@ -7766,25 +7622,25 @@
     </row>
     <row r="73" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A73" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B73" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B73" s="15" t="s">
-        <v>246</v>
-      </c>
       <c r="C73" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="D73" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="D73" s="15" t="s">
+      <c r="E73" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="E73" s="15" t="s">
-        <v>289</v>
-      </c>
       <c r="F73" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>727</v>
+        <v>675</v>
       </c>
       <c r="H73" s="15" t="s">
         <v>26</v>
@@ -7792,25 +7648,25 @@
     </row>
     <row r="74" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A74" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B74" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B74" s="15" t="s">
-        <v>246</v>
-      </c>
       <c r="C74" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="D74" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="E74" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="E74" s="15" t="s">
-        <v>292</v>
-      </c>
       <c r="F74" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>727</v>
+        <v>675</v>
       </c>
       <c r="H74" s="15" t="s">
         <v>26</v>
@@ -7818,25 +7674,25 @@
     </row>
     <row r="75" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A75" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B75" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C75" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="D75" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="D75" s="15" t="s">
+      <c r="E75" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="E75" s="15" t="s">
-        <v>296</v>
-      </c>
       <c r="F75" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>723</v>
+        <v>671</v>
       </c>
       <c r="H75" s="15" t="s">
         <v>26</v>
@@ -7844,25 +7700,25 @@
     </row>
     <row r="76" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A76" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C76" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="D76" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="D76" s="15" t="s">
+      <c r="E76" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="E76" s="15" t="s">
-        <v>299</v>
-      </c>
       <c r="F76" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>724</v>
+        <v>672</v>
       </c>
       <c r="H76" s="15" t="s">
         <v>26</v>
@@ -7870,25 +7726,25 @@
     </row>
     <row r="77" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A77" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C77" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="D77" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="D77" s="15" t="s">
+      <c r="E77" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="E77" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="F77" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>725</v>
+        <v>673</v>
       </c>
       <c r="H77" s="15" t="s">
         <v>26</v>
@@ -7896,25 +7752,25 @@
     </row>
     <row r="78" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A78" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C78" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="D78" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="E78" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="E78" s="15" t="s">
-        <v>305</v>
-      </c>
       <c r="F78" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>726</v>
+        <v>674</v>
       </c>
       <c r="H78" s="15" t="s">
         <v>26</v>
@@ -7922,25 +7778,25 @@
     </row>
     <row r="79" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A79" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C79" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="D79" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="D79" s="15" t="s">
+      <c r="E79" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="E79" s="15" t="s">
-        <v>308</v>
-      </c>
       <c r="F79" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>728</v>
+        <v>676</v>
       </c>
       <c r="H79" s="15" t="s">
         <v>26</v>
@@ -7948,25 +7804,25 @@
     </row>
     <row r="80" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A80" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C80" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="D80" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="D80" s="15" t="s">
+      <c r="E80" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="E80" s="15" t="s">
-        <v>311</v>
-      </c>
       <c r="F80" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>727</v>
+        <v>675</v>
       </c>
       <c r="H80" s="15" t="s">
         <v>26</v>
@@ -7974,25 +7830,25 @@
     </row>
     <row r="81" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A81" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D81" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E81" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="E81" s="15" t="s">
-        <v>296</v>
-      </c>
       <c r="F81" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>723</v>
+        <v>671</v>
       </c>
       <c r="H81" s="15" t="s">
         <v>26</v>
@@ -8000,25 +7856,25 @@
     </row>
     <row r="82" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A82" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D82" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="E82" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="E82" s="15" t="s">
-        <v>299</v>
-      </c>
       <c r="F82" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>724</v>
+        <v>672</v>
       </c>
       <c r="H82" s="15" t="s">
         <v>26</v>
@@ -8026,25 +7882,25 @@
     </row>
     <row r="83" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A83" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D83" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="E83" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="E83" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="F83" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>725</v>
+        <v>673</v>
       </c>
       <c r="H83" s="15" t="s">
         <v>26</v>
@@ -8052,25 +7908,25 @@
     </row>
     <row r="84" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A84" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D84" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="E84" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="E84" s="15" t="s">
-        <v>305</v>
-      </c>
       <c r="F84" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>726</v>
+        <v>674</v>
       </c>
       <c r="H84" s="15" t="s">
         <v>26</v>
@@ -8078,25 +7934,25 @@
     </row>
     <row r="85" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A85" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D85" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="E85" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="E85" s="15" t="s">
-        <v>308</v>
-      </c>
       <c r="F85" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>728</v>
+        <v>676</v>
       </c>
       <c r="H85" s="15" t="s">
         <v>26</v>
@@ -8104,25 +7960,25 @@
     </row>
     <row r="86" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A86" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D86" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="E86" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="E86" s="15" t="s">
-        <v>311</v>
-      </c>
       <c r="F86" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>727</v>
+        <v>675</v>
       </c>
       <c r="H86" s="15" t="s">
         <v>26</v>
@@ -8130,25 +7986,25 @@
     </row>
     <row r="87" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A87" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B87" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B87" s="15" t="s">
-        <v>246</v>
-      </c>
       <c r="C87" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="D87" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="D87" s="15" t="s">
+      <c r="E87" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="E87" s="15" t="s">
-        <v>320</v>
-      </c>
       <c r="F87" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>729</v>
+        <v>677</v>
       </c>
       <c r="H87" s="15" t="s">
         <v>26</v>
@@ -8156,25 +8012,25 @@
     </row>
     <row r="88" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A88" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C88" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="D88" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="D88" s="15" t="s">
+      <c r="E88" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="E88" s="15" t="s">
-        <v>323</v>
-      </c>
       <c r="F88" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>729</v>
+        <v>677</v>
       </c>
       <c r="H88" s="15" t="s">
         <v>26</v>
@@ -8182,25 +8038,25 @@
     </row>
     <row r="89" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A89" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C89" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="D89" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="D89" s="15" t="s">
+      <c r="E89" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="E89" s="15" t="s">
-        <v>326</v>
-      </c>
       <c r="F89" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>729</v>
+        <v>677</v>
       </c>
       <c r="H89" s="15" t="s">
         <v>26</v>
@@ -8208,25 +8064,25 @@
     </row>
     <row r="90" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A90" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B90" s="15" t="s">
         <v>115</v>
       </c>
       <c r="C90" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="D90" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="D90" s="15" t="s">
+      <c r="E90" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="E90" s="15" t="s">
-        <v>329</v>
-      </c>
       <c r="F90" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>729</v>
+        <v>677</v>
       </c>
       <c r="H90" s="15" t="s">
         <v>26</v>
@@ -8234,25 +8090,25 @@
     </row>
     <row r="91" spans="1:8" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A91" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B91" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="D91" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="C91" s="15" t="s">
-        <v>627</v>
-      </c>
-      <c r="D91" s="15" t="s">
+      <c r="E91" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="E91" s="15" t="s">
-        <v>332</v>
-      </c>
       <c r="F91" s="15" t="s">
         <v>23</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>729</v>
+        <v>677</v>
       </c>
       <c r="H91" s="15" t="s">
         <v>26</v>
@@ -8263,22 +8119,22 @@
         <v>111</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C92" s="16" t="s">
         <v>112</v>
       </c>
       <c r="D92" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="E92" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="E92" s="16" t="s">
-        <v>215</v>
-      </c>
       <c r="F92" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G92" s="32" t="s">
-        <v>742</v>
+        <v>690</v>
       </c>
       <c r="H92" s="16" t="s">
         <v>26</v>
@@ -8393,22 +8249,22 @@
         <v>18</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>652</v>
+        <v>600</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>651</v>
+        <v>599</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>692</v>
+        <v>640</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>693</v>
+        <v>641</v>
       </c>
       <c r="F97" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>743</v>
+        <v>691</v>
       </c>
       <c r="H97" s="18" t="s">
         <v>26</v>
@@ -8419,22 +8275,22 @@
         <v>47</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>186</v>
+        <v>695</v>
       </c>
       <c r="C98" s="17" t="s">
         <v>48</v>
       </c>
       <c r="D98" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E98" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="E98" s="17" t="s">
-        <v>188</v>
-      </c>
       <c r="F98" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G98" s="26" t="s">
-        <v>659</v>
+        <v>607</v>
       </c>
       <c r="H98" s="17" t="s">
         <v>26</v>
@@ -8445,22 +8301,22 @@
         <v>47</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C99" s="17" t="s">
         <v>50</v>
       </c>
       <c r="D99" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E99" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="E99" s="17" t="s">
-        <v>191</v>
-      </c>
       <c r="F99" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G99" s="26" t="s">
-        <v>660</v>
+        <v>608</v>
       </c>
       <c r="H99" s="17" t="s">
         <v>26</v>
@@ -8471,16 +8327,16 @@
         <v>47</v>
       </c>
       <c r="B100" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="D100" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="C100" s="17" t="s">
-        <v>617</v>
-      </c>
-      <c r="D100" s="17" t="s">
+      <c r="E100" s="17" t="s">
         <v>193</v>
-      </c>
-      <c r="E100" s="17" t="s">
-        <v>194</v>
       </c>
       <c r="F100" s="17" t="s">
         <v>23</v>
@@ -8497,22 +8353,22 @@
         <v>47</v>
       </c>
       <c r="B101" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="D101" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="C101" s="17" t="s">
-        <v>618</v>
-      </c>
-      <c r="D101" s="17" t="s">
+      <c r="E101" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="E101" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="F101" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G101" s="26" t="s">
-        <v>661</v>
+        <v>609</v>
       </c>
       <c r="H101" s="17" t="s">
         <v>26</v>
@@ -8523,16 +8379,16 @@
         <v>47</v>
       </c>
       <c r="B102" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C102" s="17" t="s">
         <v>57</v>
       </c>
       <c r="D102" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="E102" s="17" t="s">
-        <v>200</v>
       </c>
       <c r="F102" s="17" t="s">
         <v>23</v>
@@ -8549,16 +8405,16 @@
         <v>47</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C103" s="17" t="s">
         <v>60</v>
       </c>
       <c r="D103" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E103" s="17" t="s">
         <v>202</v>
-      </c>
-      <c r="E103" s="17" t="s">
-        <v>203</v>
       </c>
       <c r="F103" s="17" t="s">
         <v>23</v>
@@ -8575,22 +8431,22 @@
         <v>47</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C104" s="17" t="s">
         <v>63</v>
       </c>
       <c r="D104" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E104" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="E104" s="17" t="s">
-        <v>206</v>
-      </c>
       <c r="F104" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G104" s="26" t="s">
-        <v>656</v>
+        <v>604</v>
       </c>
       <c r="H104" s="17" t="s">
         <v>26</v>
@@ -8601,22 +8457,22 @@
         <v>47</v>
       </c>
       <c r="B105" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="D105" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="C105" s="17" t="s">
-        <v>619</v>
-      </c>
-      <c r="D105" s="17" t="s">
+      <c r="E105" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="E105" s="17" t="s">
-        <v>209</v>
-      </c>
       <c r="F105" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G105" s="26" t="s">
-        <v>662</v>
+        <v>610</v>
       </c>
       <c r="H105" s="17" t="s">
         <v>26</v>
@@ -8627,22 +8483,22 @@
         <v>47</v>
       </c>
       <c r="B106" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="D106" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="C106" s="17" t="s">
-        <v>620</v>
-      </c>
-      <c r="D106" s="17" t="s">
+      <c r="E106" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="E106" s="17" t="s">
-        <v>212</v>
-      </c>
       <c r="F106" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G106" s="26" t="s">
-        <v>663</v>
+        <v>611</v>
       </c>
       <c r="H106" s="17" t="s">
         <v>26</v>
@@ -8661,11 +8517,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D131" sqref="D131"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -8680,7 +8536,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>117</v>
@@ -8692,1630 +8548,1378 @@
         <v>119</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>346</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B20" s="3">
         <v>-999</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B23" s="3">
         <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B24" s="3">
         <v>3</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B26" s="3">
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B27" s="3">
         <v>6</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B28" s="3">
         <v>7</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B29" s="3">
         <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
-        <v>653</v>
+        <v>601</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
-        <v>653</v>
+        <v>601</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
-        <v>653</v>
+        <v>601</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
-        <v>653</v>
+        <v>601</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>407</v>
+        <v>697</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>410</v>
+        <v>697</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>413</v>
+        <v>697</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2</v>
+      </c>
+      <c r="C38" s="3">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>416</v>
+        <v>697</v>
+      </c>
+      <c r="B39" s="3">
+        <v>3</v>
+      </c>
+      <c r="C39" s="3">
+        <v>3</v>
+      </c>
+      <c r="D39" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="B40" s="3">
+        <v>4</v>
+      </c>
+      <c r="C40" s="3">
+        <v>4</v>
+      </c>
+      <c r="D40" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>423</v>
+        <v>697</v>
+      </c>
+      <c r="B41" s="3">
+        <v>5</v>
+      </c>
+      <c r="C41" s="3">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3">
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>424</v>
+        <v>368</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>426</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>431</v>
+        <v>694</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A47" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>436</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A51" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A56" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>448</v>
+        <v>368</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>449</v>
+        <v>397</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A61" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A62" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="B62" s="3" t="s">
+      <c r="D62" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="C62" s="3" t="s">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A63" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="B63" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>451</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A64" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>459</v>
+        <v>364</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>460</v>
+        <v>365</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A67" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>464</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A68" s="3" t="s">
-        <v>458</v>
+      <c r="A68" s="5" t="s">
+        <v>452</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A69" s="3" t="s">
-        <v>458</v>
+      <c r="A69" s="5" t="s">
+        <v>452</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A71" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A72" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>365</v>
+        <v>460</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>366</v>
+        <v>461</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>367</v>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A75" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>470</v>
+        <v>364</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>471</v>
+        <v>365</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A77" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A82" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>441</v>
+        <v>478</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>365</v>
+        <v>480</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>366</v>
+        <v>481</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>367</v>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A86" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="3" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>495</v>
+        <v>364</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>365</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A88" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>497</v>
+        <v>366</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="3" t="s">
-        <v>493</v>
+        <v>696</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>499</v>
+        <v>486</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>487</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="3" t="s">
-        <v>493</v>
+        <v>696</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>501</v>
+        <v>436</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>437</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>501</v>
+        <v>438</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="3" t="s">
-        <v>493</v>
+        <v>696</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>503</v>
+        <v>439</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>440</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="3" t="s">
-        <v>493</v>
+        <v>696</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>505</v>
+        <v>364</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>365</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A93" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>507</v>
+        <v>366</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A96" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>514</v>
+        <v>497</v>
+      </c>
+      <c r="B97" s="3">
+        <v>1</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A99" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>521</v>
+        <v>498</v>
+      </c>
+      <c r="B100" s="3">
+        <v>0</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A102" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>525</v>
+        <v>498</v>
+      </c>
+      <c r="B101" s="3">
+        <v>1</v>
+      </c>
+      <c r="C101" s="3">
+        <v>1</v>
+      </c>
+      <c r="D101" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="3" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>527</v>
+        <v>500</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>501</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="3" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>529</v>
+        <v>503</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>504</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="3" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>531</v>
+        <v>506</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>507</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A106" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="3" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>535</v>
+        <v>368</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>510</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="3" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>537</v>
+        <v>512</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>513</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>537</v>
+        <v>514</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="3" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>539</v>
+        <v>515</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>516</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="3" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>541</v>
+        <v>518</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>519</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A112" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>545</v>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A111" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>548</v>
+        <v>521</v>
+      </c>
+      <c r="B113" s="3">
+        <v>1</v>
+      </c>
+      <c r="C113" s="3">
+        <v>1</v>
+      </c>
+      <c r="D113" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A114" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B114" s="3">
+        <v>2</v>
+      </c>
+      <c r="C114" s="3">
+        <v>2</v>
+      </c>
+      <c r="D114" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="3" t="s">
-        <v>549</v>
+        <v>521</v>
       </c>
       <c r="B115" s="3">
-        <v>1</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>548</v>
+        <v>3</v>
+      </c>
+      <c r="C115" s="3">
+        <v>3</v>
+      </c>
+      <c r="D115" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="3" t="s">
-        <v>549</v>
+        <v>521</v>
       </c>
       <c r="B116" s="3">
-        <v>0</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A118" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="B118" s="3">
-        <v>0</v>
-      </c>
-      <c r="C118" s="3">
-        <v>0</v>
-      </c>
-      <c r="D118" s="3">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C116" s="3">
+        <v>4</v>
+      </c>
+      <c r="D116" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A117" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B117" s="3">
+        <v>5</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="3" t="s">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="B119" s="3">
+        <v>0</v>
+      </c>
+      <c r="C119" s="3">
+        <v>0</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A120" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B120" s="3">
         <v>1</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C120" s="3">
         <v>1</v>
       </c>
-      <c r="D119" s="3">
+      <c r="D120" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A121" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A122" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A123" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A125" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A126" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A127" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A128" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A129" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A131" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="B131" s="3">
-        <v>1</v>
-      </c>
-      <c r="C131" s="3">
-        <v>1</v>
-      </c>
-      <c r="D131" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A132" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="B132" s="3">
-        <v>2</v>
-      </c>
-      <c r="C132" s="3">
-        <v>2</v>
-      </c>
-      <c r="D132" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A133" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="B133" s="3">
-        <v>3</v>
-      </c>
-      <c r="C133" s="3">
-        <v>3</v>
-      </c>
-      <c r="D133" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A134" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="B134" s="3">
-        <v>4</v>
-      </c>
-      <c r="C134" s="3">
-        <v>4</v>
-      </c>
-      <c r="D134" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A135" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="B135" s="3">
-        <v>5</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A137" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="B137" s="3">
-        <v>0</v>
-      </c>
-      <c r="C137" s="3">
-        <v>0</v>
-      </c>
-      <c r="D137" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A138" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="B138" s="3">
-        <v>1</v>
-      </c>
-      <c r="C138" s="3">
-        <v>1</v>
-      </c>
-      <c r="D138" s="3">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H138" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <autoFilter ref="A1:H120" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
